--- a/TK/thongKe.xlsx
+++ b/TK/thongKe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ky2_2122\XL tín hiệu số\CK\TK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721E9060-4276-433C-8771-F9E02F9DC159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE0FEA2-6AD6-454D-8C54-AD8AFE287194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8A0C4B13-D321-42AC-9D1D-8AEB5029EB76}"/>
   </bookViews>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F6D3C5-97A1-4A55-9E07-2325A699C218}">
   <dimension ref="A1:M559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.46429999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -471,36 +471,36 @@
       </c>
       <c r="F2">
         <f>AVERAGE(A2:A46)</f>
-        <v>7.0222222222222225E-4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2">
         <f xml:space="preserve"> _xlfn.VAR.S(A2:A46)</f>
-        <v>1.2771131313131313E-5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="K2">
         <f>AVERAGE(B2:B46)</f>
-        <v>0.34604000000000013</v>
+        <v>1.7635555555555554E-2</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
       </c>
       <c r="M2">
         <f xml:space="preserve"> _xlfn.VAR.S(B2:B46)</f>
-        <v>2.150653245454541E-2</v>
+        <v>6.8962097979797978E-4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.4929</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -510,36 +510,36 @@
       </c>
       <c r="F3">
         <f xml:space="preserve"> AVERAGE(A47:A82)</f>
-        <v>0.27301944444444454</v>
+        <v>5.2888888888888888E-2</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3">
         <f xml:space="preserve"> _xlfn.VAR.S(A47:A82)</f>
-        <v>0.11651499189682535</v>
+        <v>1.1625941015873015E-2</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
       <c r="K3">
         <f xml:space="preserve"> AVERAGE(B47:B82)</f>
-        <v>0.49622777777777777</v>
+        <v>4.540000000000001E-2</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
       </c>
       <c r="M3">
         <f xml:space="preserve"> _xlfn.VAR.S(B47:B82)</f>
-        <v>4.9408397777778394E-3</v>
+        <v>5.2076857142857038E-4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.34289999999999998</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -549,36 +549,36 @@
       </c>
       <c r="F4">
         <f xml:space="preserve"> AVERAGE(A83:A154)</f>
-        <v>9.4444444444444496E-5</v>
+        <v>1.527777777777778E-5</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4">
         <f xml:space="preserve"> _xlfn.VAR.S(A83:A154)</f>
-        <v>1.574334898278561E-8</v>
+        <v>2.1576682316118841E-9</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
       </c>
       <c r="K4">
         <f xml:space="preserve"> AVERAGE(B83:B154)</f>
-        <v>0.48393194444444454</v>
+        <v>0.11750000000000001</v>
       </c>
       <c r="L4" t="s">
         <v>7</v>
       </c>
       <c r="M4">
         <f xml:space="preserve"> _xlfn.VAR.S(B83:B154)</f>
-        <v>2.0403738260954617E-2</v>
+        <v>4.7320819718309854E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.34289999999999998</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -588,36 +588,36 @@
       </c>
       <c r="F5">
         <f xml:space="preserve"> AVERAGE(A155:A186)</f>
-        <v>0.11874062499999999</v>
+        <v>6.3140624999999992E-2</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5">
         <f xml:space="preserve"> _xlfn.VAR.S(A155:A186)</f>
-        <v>1.6484381844758072E-2</v>
+        <v>6.2110689415322568E-3</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
       </c>
       <c r="K5">
         <f xml:space="preserve"> AVERAGE(B155:B186)</f>
-        <v>0.59575937500000009</v>
+        <v>0.17955312500000006</v>
       </c>
       <c r="L5" t="s">
         <v>8</v>
       </c>
       <c r="M5">
         <f xml:space="preserve"> _xlfn.VAR.S(B155:B186)</f>
-        <v>6.1793773286290222E-3</v>
+        <v>3.6971328931451448E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.29289999999999999</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -627,36 +627,36 @@
       </c>
       <c r="F6">
         <f xml:space="preserve"> AVERAGE(A187:A270)</f>
-        <v>3.3214285714285713E-4</v>
+        <v>4.4047619047619027E-5</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6">
         <f xml:space="preserve"> _xlfn.VAR.S(A187:A270)</f>
-        <v>5.4822074010327013E-6</v>
+        <v>4.9039013195639651E-9</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
       </c>
       <c r="K6">
         <f xml:space="preserve"> AVERAGE(B187:B271)</f>
-        <v>0.51974588235294117</v>
+        <v>0.24070588235294116</v>
       </c>
       <c r="L6" t="s">
         <v>7</v>
       </c>
       <c r="M6">
         <f xml:space="preserve"> _xlfn.VAR.S(B187:B271)</f>
-        <v>1.9075954893557408E-2</v>
+        <v>1.3236961988795579E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.29289999999999999</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -666,36 +666,36 @@
       </c>
       <c r="F7">
         <f xml:space="preserve"> AVERAGE(A271:A287)</f>
-        <v>0.10121176470588236</v>
+        <v>8.2894117647058813E-2</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="H7">
         <f xml:space="preserve"> _xlfn.VAR.S(A271:A287)</f>
-        <v>3.7717986029411777E-3</v>
+        <v>2.8445480882352964E-3</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
       </c>
       <c r="K7">
         <f xml:space="preserve"> AVERAGE(B271:B287)</f>
-        <v>0.72269411764705882</v>
+        <v>0.34920588235294109</v>
       </c>
       <c r="L7" t="s">
         <v>8</v>
       </c>
       <c r="M7">
         <f xml:space="preserve"> _xlfn.VAR.S(B271:B287)</f>
-        <v>4.7638605882352955E-3</v>
+        <v>3.6840430882353614E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.25</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -705,36 +705,36 @@
       </c>
       <c r="F8">
         <f xml:space="preserve"> AVERAGE(A283:A379)</f>
-        <v>1.7484536082474193E-3</v>
+        <v>2.0865979381443269E-3</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8">
         <f xml:space="preserve"> _xlfn.VAR.S(A283:A379)</f>
-        <v>5.9487731958762903E-5</v>
+        <v>8.3394089347079019E-5</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
       </c>
       <c r="K8">
         <f xml:space="preserve"> AVERAGE(B283:B379)</f>
-        <v>0.511416494845361</v>
+        <v>0.3294061855670104</v>
       </c>
       <c r="L8" t="s">
         <v>7</v>
       </c>
       <c r="M8">
         <f xml:space="preserve"> _xlfn.VAR.S(B283:B379)</f>
-        <v>2.9523591600085625E-2</v>
+        <v>2.1111074753006775E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.22140000000000001</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -744,36 +744,36 @@
       </c>
       <c r="F9">
         <f xml:space="preserve"> AVERAGE(A380:A416)</f>
-        <v>0.24164324324324324</v>
+        <v>0.27640540540540548</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
       <c r="H9">
         <f xml:space="preserve"> _xlfn.VAR.S(A380:A416)</f>
-        <v>8.0058214744744741E-2</v>
+        <v>0.11454251108108106</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
       <c r="K9">
         <f xml:space="preserve"> AVERAGE(B380:B416)</f>
-        <v>0.39999729729729744</v>
+        <v>0.2767</v>
       </c>
       <c r="L9" t="s">
         <v>8</v>
       </c>
       <c r="M9">
         <f xml:space="preserve"> _xlfn.VAR.S(B380:B416)</f>
-        <v>1.2245586036036037E-3</v>
+        <v>2.5267883333332953E-3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0.3286</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -783,28 +783,28 @@
       </c>
       <c r="F10">
         <f xml:space="preserve"> AVERAGE(A417:A485)</f>
-        <v>1.3188405797101452E-4</v>
+        <v>1.1884057971014494E-4</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
       <c r="H10">
         <f xml:space="preserve"> _xlfn.VAR.S(A417:A485)</f>
-        <v>1.4220375106564361E-7</v>
+        <v>2.037510656436493E-8</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
       </c>
       <c r="K10">
         <f xml:space="preserve"> AVERAGE(B417:B485)</f>
-        <v>0.47402028985507239</v>
+        <v>0.43547246376811599</v>
       </c>
       <c r="L10" t="s">
         <v>7</v>
       </c>
       <c r="M10">
         <f xml:space="preserve"> _xlfn.VAR.S(B417:B485)</f>
-        <v>2.8645441935208956E-2</v>
+        <v>4.1279756142369894E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.4143</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -822,36 +822,36 @@
       </c>
       <c r="F11">
         <f xml:space="preserve"> AVERAGE(A486:A515)</f>
-        <v>0.14631999999999995</v>
+        <v>0.21846333333333334</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
       <c r="H11">
         <f xml:space="preserve"> _xlfn.VAR.S(A486:A515)</f>
-        <v>2.4303711310344839E-2</v>
+        <v>6.0785567919540213E-2</v>
       </c>
       <c r="J11" t="s">
         <v>6</v>
       </c>
       <c r="K11">
         <f xml:space="preserve"> AVERAGE(B486:B515)</f>
-        <v>0.23976666666666663</v>
+        <v>0.22009666666666663</v>
       </c>
       <c r="L11" t="s">
         <v>8</v>
       </c>
       <c r="M11">
         <f xml:space="preserve"> _xlfn.VAR.S(B486:B515)</f>
-        <v>4.7131043678161118E-3</v>
+        <v>9.2723920574712924E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.34289999999999998</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -861,36 +861,36 @@
       </c>
       <c r="F12">
         <f>AVERAGE(A516:A557)</f>
-        <v>4.7619047619047627E-5</v>
+        <v>8.5714285714285658E-5</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
       <c r="H12">
         <f xml:space="preserve"> _xlfn.VAR.S(A516:A557)</f>
-        <v>2.5551684088269439E-9</v>
+        <v>4.6689895470383289E-9</v>
       </c>
       <c r="J12" t="s">
         <v>5</v>
       </c>
       <c r="K12">
         <f>AVERAGE(B516:B557)</f>
-        <v>0.48129047619047621</v>
+        <v>0.53438571428571435</v>
       </c>
       <c r="L12" t="s">
         <v>7</v>
       </c>
       <c r="M12">
         <f xml:space="preserve"> _xlfn.VAR.S(B516:B557)</f>
-        <v>1.7175901858304227E-2</v>
+        <v>3.594573783972127E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.19289999999999999</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>0.12139999999999999</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>0.1857</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -922,27 +922,27 @@
       </c>
       <c r="F15">
         <f xml:space="preserve"> AVERAGE(F2,F4,F6,F8,F10,F12)</f>
-        <v>5.0946103960783416E-4</v>
+        <v>3.9174636673235905E-4</v>
       </c>
       <c r="H15">
         <f xml:space="preserve"> AVERAGE(H2,H4,H6,H8,H10,H12)</f>
-        <v>1.2983595490230695E-5</v>
+        <v>1.3904365835456934E-5</v>
       </c>
       <c r="K15">
         <f xml:space="preserve"> AVERAGE(K2,K4,K6,K8,K10,K12)</f>
-        <v>0.46940751461471591</v>
+        <v>0.27918430025488955</v>
       </c>
       <c r="M15">
         <f xml:space="preserve"> AVERAGE(M2,M4,M6,M8,M10,M12)</f>
-        <v>2.2721860167109375E-2</v>
+        <v>1.949920561258708E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -952,27 +952,27 @@
       </c>
       <c r="F16">
         <f xml:space="preserve"> AVERAGE(F3,F5,F7,F9,F11)</f>
-        <v>0.17618701547871402</v>
+        <v>0.1387584740549373</v>
       </c>
       <c r="H16">
         <f xml:space="preserve"> AVERAGE(H3,H5,H7,H9,H11)</f>
-        <v>4.8226619679922839E-2</v>
+        <v>3.9201927409252366E-2</v>
       </c>
       <c r="K16">
         <f xml:space="preserve"> AVERAGE(K3,K5,K7,K9,K11)</f>
-        <v>0.49088904687776014</v>
+        <v>0.21419113480392155</v>
       </c>
       <c r="M16">
         <f xml:space="preserve"> AVERAGE(M3,M5,M7,M9,M11)</f>
-        <v>4.364348133212374E-3</v>
+        <v>3.940224988722733E-3</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -993,26 +993,26 @@
       </c>
       <c r="G18">
         <f xml:space="preserve"> ((F15 + H15) + (F16 - H16)) / 2</f>
-        <v>6.4241420216944622E-2</v>
+        <v>4.9981098689126376E-2</v>
       </c>
       <c r="L18">
         <f xml:space="preserve"> ((K15 + M15) + (K16 - M16)) / 2</f>
-        <v>0.48932703676318656</v>
+        <v>0.25446720784133769</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>0.29289999999999999</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G19">
         <f xml:space="preserve"> F15 + H15</f>
-        <v>5.2244463509806491E-4</v>
+        <v>4.05650732567816E-4</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>0.4143</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>0.4</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -1039,10 +1039,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>0.46429999999999999</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>0.37140000000000001</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>0.39290000000000003</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1072,64 +1072,64 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>0.5071</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F25">
         <f xml:space="preserve"> AVERAGE(A2:A46,A83:A154,A187:A270,A288:A379,A417:A485,A516:A557)</f>
-        <v>2.4430693069307059E-4</v>
+        <v>8.4900990099009944E-5</v>
       </c>
       <c r="G25">
         <f xml:space="preserve"> _xlfn.VAR.S(A2:A46,A83:A154,A187:A270,A288:A379,A417:A485,A516:A557)</f>
-        <v>2.680786367098244E-6</v>
+        <v>9.269949389479923E-8</v>
       </c>
       <c r="J25">
         <f xml:space="preserve"> AVERAGE(B2:B46,B83:B154,B187:B270,B288:B379,B417:B485,B516:B557)</f>
-        <v>0.47712351485148496</v>
+        <v>0.27753985148514854</v>
       </c>
       <c r="K25">
         <f xml:space="preserve"> _xlfn.VAR.S(B2:B46,B83:B154,B187:B270,B288:B379,B417:B485,B516:B557)</f>
-        <v>2.5049646269501284E-2</v>
+        <v>4.3428766919084538E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>0.55000000000000004</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F26">
         <f xml:space="preserve"> AVERAGE(A47:A82,A155:A186,A271:A287,A380:A416,A486:A515)</f>
-        <v>0.18868026315789468</v>
+        <v>0.14549078947368421</v>
       </c>
       <c r="G26">
         <f xml:space="preserve"> _xlfn.VAR.S(A47:A82,A155:A186,A271:A287,A380:A416,A486:A515)</f>
-        <v>5.9182622919135598E-2</v>
+        <v>5.2433645609968639E-2</v>
       </c>
       <c r="J26">
         <f xml:space="preserve"> AVERAGE(B47:B82,B155:B186,B271:B287,B380:B416,B486:B515)</f>
-        <v>0.4684684210526312</v>
+        <v>0.19840394736842107</v>
       </c>
       <c r="K26">
         <f xml:space="preserve"> _xlfn.VAR.S(B47:B82,B155:B186,B271:B287,B380:B416,B486:B515)</f>
-        <v>2.6549908532589966E-2</v>
+        <v>1.3465717467758835E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>0.4929</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1137,29 +1137,29 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>0.38569999999999999</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G28">
         <f xml:space="preserve"> ((F25 + G25) + (F26 - G26)) / 2</f>
-        <v>6.4872313977909629E-2</v>
+        <v>4.6571068776654241E-2</v>
       </c>
       <c r="K28">
         <f xml:space="preserve"> ((J25 + K25) + (J26 - K26)) / 2</f>
-        <v>0.47204583682051371</v>
+        <v>0.25295342415244765</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>0.37859999999999999</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>0.4143</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>0.3286</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>0.25</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>8.5699999999999998E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>5.7099999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>0.2429</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B37">
-        <v>0.40710000000000002</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B39">
-        <v>0.3357</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B40">
-        <v>0.27860000000000001</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B41">
-        <v>0.3357</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B42">
-        <v>0.40710000000000002</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B43">
-        <v>0.52859999999999996</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>0.7</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2.7000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="B45">
-        <v>0.6714</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>2.4E-2</v>
+        <v>0</v>
       </c>
       <c r="B46">
-        <v>0.55000000000000004</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>7.9600000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="B47">
-        <v>0.4214</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.18679999999999999</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="B48">
-        <v>0.34289999999999998</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.39889999999999998</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="B49">
-        <v>0.35</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.54190000000000005</v>
+        <v>1.49E-2</v>
       </c>
       <c r="B50">
-        <v>0.4</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.62629999999999997</v>
+        <v>0.30170000000000002</v>
       </c>
       <c r="B51">
-        <v>0.45</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.79149999999999998</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="B52">
-        <v>0.46429999999999999</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.86019999999999996</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="B53">
-        <v>0.4929</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>0.52139999999999997</v>
       </c>
       <c r="B54">
-        <v>0.5</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.9153</v>
+        <v>0.11409999999999999</v>
       </c>
       <c r="B55">
-        <v>0.5857</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0.84399999999999997</v>
+        <v>1.01E-2</v>
       </c>
       <c r="B56">
-        <v>0.5786</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.81010000000000004</v>
+        <v>0.1855</v>
       </c>
       <c r="B57">
-        <v>0.5786</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.69679999999999997</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="B58">
-        <v>0.53569999999999995</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.62270000000000003</v>
+        <v>0.21479999999999999</v>
       </c>
       <c r="B59">
-        <v>0.52859999999999996</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.45850000000000002</v>
+        <v>0.1242</v>
       </c>
       <c r="B60">
-        <v>0.55000000000000004</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.3458</v>
+        <v>1.78E-2</v>
       </c>
       <c r="B61">
-        <v>0.52139999999999997</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.25700000000000001</v>
+        <v>0.16389999999999999</v>
       </c>
       <c r="B62">
-        <v>0.52139999999999997</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.15060000000000001</v>
+        <v>6.54E-2</v>
       </c>
       <c r="B63">
-        <v>0.47139999999999999</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>4</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>8.0299999999999996E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="B64">
-        <v>0.5</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>5.1200000000000002E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="B65">
-        <v>0.54290000000000005</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>2.7300000000000001E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="B66">
-        <v>0.60709999999999997</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1.49E-2</v>
+        <v>3.3E-3</v>
       </c>
       <c r="B67">
-        <v>0.64290000000000003</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>4</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1.4200000000000001E-2</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="B68">
-        <v>0.5786</v>
+        <v>0.1111</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1.1299999999999999E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B69">
-        <v>0.52139999999999997</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>4</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>8.5000000000000006E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B70">
-        <v>0.45710000000000001</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>6.6E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B71">
-        <v>0.4929</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>4</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>5.3E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B72">
-        <v>0.48570000000000002</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>5.1999999999999998E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="B73">
-        <v>0.45710000000000001</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>4</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>4.7000000000000002E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B74">
-        <v>0.43569999999999998</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>3.8E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="B75">
-        <v>0.46429999999999999</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>4</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>2E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="B76">
-        <v>0.48570000000000002</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1.6000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="B77">
-        <v>0.45710000000000001</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>4</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1.6000000000000001E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B78">
-        <v>0.4</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>4</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1.9E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B79">
-        <v>0.40710000000000002</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>4</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1.4E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B80">
-        <v>0.5</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>4</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="B81">
-        <v>0.55000000000000004</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>4</v>
@@ -1742,7 +1742,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="B82">
-        <v>0.5857</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="B83">
-        <v>0.52859999999999996</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>0.54290000000000005</v>
+        <v>0.1111</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B85">
-        <v>0.47139999999999999</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>5.9999999999999995E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B86">
-        <v>0.46429999999999999</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>5.9999999999999995E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B87">
-        <v>0.39290000000000003</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
@@ -1808,7 +1808,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="B88">
-        <v>0.42859999999999998</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
@@ -1819,7 +1819,7 @@
         <v>1E-4</v>
       </c>
       <c r="B89">
-        <v>0.42859999999999998</v>
+        <v>0.1111</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
@@ -1830,7 +1830,7 @@
         <v>1E-4</v>
       </c>
       <c r="B90">
-        <v>0.52139999999999997</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B91">
-        <v>0.60709999999999997</v>
+        <v>0.1111</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B92">
-        <v>0.5071</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B93">
-        <v>0.4</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>0.31430000000000002</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B95">
-        <v>0.4</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B96">
-        <v>0.46429999999999999</v>
+        <v>0.1905</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B97">
-        <v>0.4929</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>0.6714</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>0.75</v>
+        <v>0.1111</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>0.8</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>0.63570000000000004</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>0.65710000000000002</v>
+        <v>0.127</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="B103">
-        <v>0.67859999999999998</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="B104">
-        <v>0.72140000000000004</v>
+        <v>0.1111</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="B105">
-        <v>0.75</v>
+        <v>0.1111</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <v>0.65710000000000002</v>
+        <v>0.1111</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <v>0.45710000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B108">
-        <v>0.31430000000000002</v>
+        <v>0.127</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B109">
-        <v>0.37859999999999999</v>
+        <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
@@ -2050,7 +2050,7 @@
         <v>1E-4</v>
       </c>
       <c r="B110">
-        <v>0.4929</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B111">
-        <v>0.4143</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B112">
-        <v>0.28570000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B113">
-        <v>0.30709999999999998</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="B114">
-        <v>0.42859999999999998</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <v>0.55000000000000004</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="B116">
-        <v>0.7</v>
+        <v>0.127</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="B117">
-        <v>0.62860000000000005</v>
+        <v>0.1111</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="B118">
-        <v>0.5786</v>
+        <v>0.254</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="B119">
-        <v>0.45710000000000001</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>0.55710000000000004</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="B121">
-        <v>0.5071</v>
+        <v>0.1111</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="B122">
-        <v>0.52859999999999996</v>
+        <v>0.1111</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B123">
-        <v>0.36430000000000001</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B124">
-        <v>0.3357</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
@@ -2215,7 +2215,7 @@
         <v>1E-4</v>
       </c>
       <c r="B125">
-        <v>0.21429999999999999</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B126">
-        <v>0.32140000000000002</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B127">
-        <v>0.34289999999999998</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>3</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B128">
-        <v>0.3286</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>3</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B129">
-        <v>0.37859999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>3</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B130">
-        <v>0.43569999999999998</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B131">
-        <v>0.43569999999999998</v>
+        <v>0.127</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>3</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B132">
-        <v>0.27860000000000001</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B133">
-        <v>0.2429</v>
+        <v>0.1905</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>0.46429999999999999</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>0.64290000000000003</v>
+        <v>0</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>3</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <v>0.67859999999999998</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>3</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B137">
-        <v>0.52139999999999997</v>
+        <v>0.3175</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>3</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B138">
-        <v>0.35709999999999997</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>3</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B139">
-        <v>0.28570000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B140">
-        <v>0.36430000000000001</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B141">
-        <v>0.45710000000000001</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>3</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B142">
-        <v>0.4</v>
+        <v>0.1905</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>3</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B143">
-        <v>0.39290000000000003</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>3</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>0.5</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>3</v>
@@ -2435,7 +2435,7 @@
         <v>1E-4</v>
       </c>
       <c r="B145">
-        <v>0.56430000000000002</v>
+        <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>3</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B146">
-        <v>0.43569999999999998</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>3</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B147">
-        <v>0.2286</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>3</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B148">
-        <v>0.27860000000000001</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>3</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="B149">
-        <v>0.46429999999999999</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>0.65710000000000002</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>3</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>0.6643</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>3</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>0.67859999999999998</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>3</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>0.62860000000000005</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>3</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="B154">
-        <v>0.62860000000000005</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>3</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>8.3000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="B155">
-        <v>0.52859999999999996</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>4</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
       <c r="B156">
-        <v>0.4929</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>4</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>4.7199999999999999E-2</v>
+        <v>3.3E-3</v>
       </c>
       <c r="B157">
-        <v>0.56430000000000002</v>
+        <v>0.1111</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>4</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>7.8399999999999997E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="B158">
-        <v>0.5786</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>4</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.10929999999999999</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="B159">
-        <v>0.62860000000000005</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>4</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.18149999999999999</v>
+        <v>2.46E-2</v>
       </c>
       <c r="B160">
-        <v>0.62860000000000005</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>4</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.23719999999999999</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="B161">
-        <v>0.65</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>4</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.27329999999999999</v>
+        <v>0.19650000000000001</v>
       </c>
       <c r="B162">
-        <v>0.63570000000000004</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>4</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>0.29289999999999999</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="B163">
-        <v>0.6643</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>4</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.3014</v>
+        <v>0.13350000000000001</v>
       </c>
       <c r="B164">
-        <v>0.6714</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>4</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.32379999999999998</v>
+        <v>0.23419999999999999</v>
       </c>
       <c r="B165">
-        <v>0.63570000000000004</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>4</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.34010000000000001</v>
+        <v>0.1021</v>
       </c>
       <c r="B166">
-        <v>0.61429999999999996</v>
+        <v>0.1111</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.3392</v>
+        <v>0.1487</v>
       </c>
       <c r="B167">
-        <v>0.55710000000000004</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>4</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.31409999999999999</v>
+        <v>0.29339999999999999</v>
       </c>
       <c r="B168">
-        <v>0.57140000000000002</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>4</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.26640000000000003</v>
+        <v>0.12529999999999999</v>
       </c>
       <c r="B169">
-        <v>0.52859999999999996</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>4</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>0.21290000000000001</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="B170">
-        <v>0.52859999999999996</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>4</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>0.17180000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="B171">
-        <v>0.5071</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>4</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.114</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="B172">
-        <v>0.47860000000000003</v>
+        <v>0.1111</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>4</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>7.3700000000000002E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="B173">
-        <v>0.51429999999999998</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>4</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>4.4900000000000002E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="B174">
-        <v>0.5071</v>
+        <v>0.1111</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>4</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>1.5900000000000001E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="B175">
-        <v>0.52859999999999996</v>
+        <v>0.1905</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>4</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>8.8999999999999999E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="B176">
-        <v>0.52859999999999996</v>
+        <v>0.1111</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>4</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>4.8999999999999998E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="B177">
-        <v>0.4929</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>4</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>4.4000000000000003E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="B178">
-        <v>0.55710000000000004</v>
+        <v>0.127</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>4</v>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>4.5999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B179">
-        <v>0.55000000000000004</v>
+        <v>0.1111</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>4</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>4.1000000000000003E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B180">
-        <v>0.71430000000000005</v>
+        <v>0.254</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>4</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="B181">
-        <v>0.70709999999999995</v>
+        <v>0.1111</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>4</v>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1.9E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="B182">
-        <v>0.7571</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="B183">
-        <v>0.68569999999999998</v>
+        <v>0.254</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>4</v>
@@ -2864,7 +2864,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="B184">
-        <v>0.68569999999999998</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>4</v>
@@ -2875,7 +2875,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="B185">
-        <v>0.6643</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>4</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B186">
-        <v>0.70709999999999995</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>4</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B187">
-        <v>0.73570000000000002</v>
+        <v>0.254</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>3</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B188">
-        <v>0.7429</v>
+        <v>0.3175</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>3</v>
@@ -2916,10 +2916,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B189">
-        <v>0.68569999999999998</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>3</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B190">
-        <v>0.70709999999999995</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>3</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B191">
-        <v>0.63570000000000004</v>
+        <v>0.254</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>3</v>
@@ -2952,7 +2952,7 @@
         <v>1E-4</v>
       </c>
       <c r="B192">
-        <v>0.6643</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>3</v>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B193">
-        <v>0.54290000000000005</v>
+        <v>0.1111</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>3</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B194">
-        <v>0.57140000000000002</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>3</v>
@@ -2985,7 +2985,7 @@
         <v>1E-4</v>
       </c>
       <c r="B195">
-        <v>0.40710000000000002</v>
+        <v>0.1905</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>3</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B196">
-        <v>0.37859999999999999</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>3</v>
@@ -3007,7 +3007,7 @@
         <v>1E-4</v>
       </c>
       <c r="B197">
-        <v>0.42859999999999998</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>3</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B198">
-        <v>0.59289999999999998</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>3</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B199">
-        <v>0.56430000000000002</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>3</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B200">
-        <v>0.45710000000000001</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>3</v>
@@ -3051,7 +3051,7 @@
         <v>1E-4</v>
       </c>
       <c r="B201">
-        <v>0.3286</v>
+        <v>0.127</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>3</v>
@@ -3062,7 +3062,7 @@
         <v>1E-4</v>
       </c>
       <c r="B202">
-        <v>0.37140000000000001</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>3</v>
@@ -3073,7 +3073,7 @@
         <v>1E-4</v>
       </c>
       <c r="B203">
-        <v>0.31430000000000002</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>3</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B204">
-        <v>0.38569999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>3</v>
@@ -3095,7 +3095,7 @@
         <v>1E-4</v>
       </c>
       <c r="B205">
-        <v>0.43569999999999998</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>3</v>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B206">
-        <v>0.56430000000000002</v>
+        <v>0.1905</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>3</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="B207">
-        <v>0.63570000000000004</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>3</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B208">
-        <v>0.46429999999999999</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>3</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B209">
-        <v>0.37859999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>3</v>
@@ -3150,7 +3150,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="B210">
-        <v>0.3</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>3</v>
@@ -3161,7 +3161,7 @@
         <v>1E-4</v>
       </c>
       <c r="B211">
-        <v>0.52139999999999997</v>
+        <v>0.254</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>3</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="B212">
-        <v>0.62139999999999995</v>
+        <v>0.1429</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>3</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B213">
-        <v>0.60709999999999997</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>3</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>0.40710000000000002</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>3</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B215">
-        <v>0.2429</v>
+        <v>0.1905</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>1E-4</v>
       </c>
       <c r="B216">
-        <v>0.2</v>
+        <v>0.127</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>3</v>
@@ -3227,7 +3227,7 @@
         <v>1E-4</v>
       </c>
       <c r="B217">
-        <v>0.35</v>
+        <v>0.127</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>3</v>
@@ -3238,7 +3238,7 @@
         <v>1E-4</v>
       </c>
       <c r="B218">
-        <v>0.38569999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>3</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="B219">
-        <v>0.42859999999999998</v>
+        <v>0.1905</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>3</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B220">
-        <v>0.4</v>
+        <v>0.127</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>3</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="B221">
-        <v>0.62860000000000005</v>
+        <v>0.127</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>3</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="B222">
-        <v>0.72140000000000004</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>3</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="B223">
-        <v>0.6643</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>3</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="B224">
-        <v>0.5071</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>3</v>
@@ -3315,7 +3315,7 @@
         <v>1E-4</v>
       </c>
       <c r="B225">
-        <v>0.36430000000000001</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>3</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B226">
-        <v>0.4</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>3</v>
@@ -3337,7 +3337,7 @@
         <v>1E-4</v>
       </c>
       <c r="B227">
-        <v>0.45710000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>3</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B228">
-        <v>0.44290000000000002</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>3</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="B229">
-        <v>0.57140000000000002</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>3</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="B230">
-        <v>0.5857</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>3</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="B231">
-        <v>0.7</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>3</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="B232">
-        <v>0.67859999999999998</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>3</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="B233">
-        <v>0.69289999999999996</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>3</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="B234">
-        <v>0.77139999999999997</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>3</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="B235">
-        <v>0.73570000000000002</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>3</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="B236">
-        <v>0.65</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>3</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="B237">
-        <v>0.56430000000000002</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>3</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B238">
-        <v>0.47139999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>3</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B239">
-        <v>0.44290000000000002</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>3</v>
@@ -3480,7 +3480,7 @@
         <v>1E-4</v>
       </c>
       <c r="B240">
-        <v>0.30709999999999998</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>3</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="B241">
-        <v>0.3357</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>3</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="B242">
-        <v>0.45</v>
+        <v>0.1905</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>3</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="B243">
-        <v>0.68569999999999998</v>
+        <v>0.127</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>3</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B244">
-        <v>0.62860000000000005</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>3</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B245">
-        <v>0.51429999999999998</v>
+        <v>0.3175</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>3</v>
@@ -3546,7 +3546,7 @@
         <v>1E-4</v>
       </c>
       <c r="B246">
-        <v>0.46429999999999999</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>3</v>
@@ -3557,7 +3557,7 @@
         <v>1E-4</v>
       </c>
       <c r="B247">
-        <v>0.55000000000000004</v>
+        <v>0.1111</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>3</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B248">
-        <v>0.46429999999999999</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>3</v>
@@ -3579,7 +3579,7 @@
         <v>1E-4</v>
       </c>
       <c r="B249">
-        <v>0.30709999999999998</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>3</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B250">
-        <v>0.36430000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>3</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B251">
-        <v>0.55710000000000004</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>3</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="B252">
-        <v>0.60709999999999997</v>
+        <v>0.1905</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>3</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="B253">
-        <v>0.51429999999999998</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>3</v>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="B254">
-        <v>0.44290000000000002</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>3</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="B255">
-        <v>0.5071</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>3</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="B256">
-        <v>0.6</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>3</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="B257">
-        <v>0.55000000000000004</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>3</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="B258">
-        <v>0.5071</v>
+        <v>0.41270000000000001</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>3</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="B259">
-        <v>0.47860000000000003</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>3</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="B260">
-        <v>0.6</v>
+        <v>0.1905</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>3</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B261">
-        <v>0.65</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>3</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="B262">
-        <v>0.82140000000000002</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>3</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="B263">
-        <v>0.79290000000000005</v>
+        <v>0.3175</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>3</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="B264">
-        <v>0.72140000000000004</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>3</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B265">
-        <v>0.38569999999999999</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>3</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B266">
-        <v>0.4214</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>3</v>
@@ -3777,7 +3777,7 @@
         <v>1E-4</v>
       </c>
       <c r="B267">
-        <v>0.39290000000000003</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>3</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B268">
-        <v>0.5071</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>3</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>1.1999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="B269">
-        <v>0.45</v>
+        <v>0.1905</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>3</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>2.1499999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="B270">
-        <v>0.5</v>
+        <v>0.1905</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>3</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>5.1200000000000002E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B271">
-        <v>0.59289999999999998</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>4</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>9.0700000000000003E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="B272">
-        <v>0.67859999999999998</v>
+        <v>0.254</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>4</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>0.12</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="B273">
-        <v>0.78569999999999995</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>4</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>0.16900000000000001</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="B274">
-        <v>0.73570000000000002</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>4</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>0.18060000000000001</v>
+        <v>0.13059999999999999</v>
       </c>
       <c r="B275">
-        <v>0.70709999999999995</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>4</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>0.18090000000000001</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="B276">
-        <v>0.67859999999999998</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>4</v>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>0.1691</v>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="B277">
-        <v>0.77139999999999997</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>4</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>0.16070000000000001</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="B278">
-        <v>0.7571</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>4</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>0.16020000000000001</v>
+        <v>0.1295</v>
       </c>
       <c r="B279">
-        <v>0.7429</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>4</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>0.1208</v>
+        <v>0.1376</v>
       </c>
       <c r="B280">
-        <v>0.70709999999999995</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>4</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>9.8799999999999999E-2</v>
+        <v>0.1145</v>
       </c>
       <c r="B281">
-        <v>0.69289999999999996</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>4</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>7.0300000000000001E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="B282">
-        <v>0.6643</v>
+        <v>0.3175</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>4</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>5.3600000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="B283">
-        <v>0.65</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>4</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>4.4999999999999998E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="B284">
-        <v>0.67859999999999998</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>4</v>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>2.7199999999999998E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="B285">
-        <v>0.7429</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>4</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>1.7299999999999999E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="B286">
-        <v>0.81430000000000002</v>
+        <v>0.3175</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>4</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>5.1999999999999998E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="B287">
-        <v>0.88570000000000004</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>4</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>3.5999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="B288">
-        <v>0.89290000000000003</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>3</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="B289">
-        <v>0.8</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>3</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>2.2000000000000001E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="B290">
-        <v>0.76429999999999998</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>3</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>8.9999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B291">
-        <v>0.72860000000000003</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>3</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>8.9999999999999998E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B292">
-        <v>0.62139999999999995</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>3</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B293">
-        <v>0.39290000000000003</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>3</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>5.0000000000000001E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="B294">
-        <v>0.34289999999999998</v>
+        <v>0.1905</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>3</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B295">
-        <v>0.4</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>3</v>
@@ -4096,7 +4096,7 @@
         <v>1E-4</v>
       </c>
       <c r="B296">
-        <v>0.48570000000000002</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>3</v>
@@ -4107,7 +4107,7 @@
         <v>1E-4</v>
       </c>
       <c r="B297">
-        <v>0.45710000000000001</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>3</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B298">
-        <v>0.37859999999999999</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>3</v>
@@ -4129,7 +4129,7 @@
         <v>1E-4</v>
       </c>
       <c r="B299">
-        <v>0.48570000000000002</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>3</v>
@@ -4140,7 +4140,7 @@
         <v>1E-4</v>
       </c>
       <c r="B300">
-        <v>0.5071</v>
+        <v>0.127</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>3</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B301">
-        <v>0.65710000000000002</v>
+        <v>0.41270000000000001</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>3</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>0.6</v>
+        <v>0.3175</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>3</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="B303">
-        <v>0.65710000000000002</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>3</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B304">
-        <v>0.53569999999999995</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>3</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B305">
-        <v>0.57140000000000002</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>3</v>
@@ -4206,7 +4206,7 @@
         <v>1E-4</v>
       </c>
       <c r="B306">
-        <v>0.62139999999999995</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>3</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="B307">
-        <v>0.65</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>3</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="B308">
-        <v>0.62860000000000005</v>
+        <v>0.41270000000000001</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>3</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B309">
-        <v>0.43569999999999998</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>3</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B310">
-        <v>0.47139999999999999</v>
+        <v>0.49209999999999998</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>3</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B311">
-        <v>0.47139999999999999</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>3</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="B312">
-        <v>0.52139999999999997</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>3</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="B313">
-        <v>0.45</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>3</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B314">
-        <v>0.35</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>3</v>
@@ -4305,7 +4305,7 @@
         <v>1E-4</v>
       </c>
       <c r="B315">
-        <v>0.3</v>
+        <v>0.1429</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>3</v>
@@ -4316,7 +4316,7 @@
         <v>1E-4</v>
       </c>
       <c r="B316">
-        <v>0.4</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>3</v>
@@ -4327,7 +4327,7 @@
         <v>1E-4</v>
       </c>
       <c r="B317">
-        <v>0.5071</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>3</v>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B318">
-        <v>0.70709999999999995</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>3</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="B319">
-        <v>0.62860000000000005</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>3</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B320">
-        <v>0.68569999999999998</v>
+        <v>0.49209999999999998</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>3</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="B321">
-        <v>0.56430000000000002</v>
+        <v>0.254</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>3</v>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="B322">
-        <v>0.69289999999999996</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>3</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="B323">
-        <v>0.56430000000000002</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>3</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="B324">
-        <v>0.6643</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>3</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="B325">
-        <v>0.68569999999999998</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>3</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="B326">
-        <v>0.6643</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>3</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="B327">
-        <v>0.5786</v>
+        <v>0.49209999999999998</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>3</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="B328">
-        <v>0.52859999999999996</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>3</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="B329">
-        <v>0.6643</v>
+        <v>0.60319999999999996</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>3</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="B330">
-        <v>0.53569999999999995</v>
+        <v>0.49209999999999998</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>3</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="B331">
-        <v>0.4</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>3</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B332">
-        <v>0.17860000000000001</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>3</v>
@@ -4503,7 +4503,7 @@
         <v>1E-4</v>
       </c>
       <c r="B333">
-        <v>0.17860000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>3</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B334">
-        <v>0.2286</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>3</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B335">
-        <v>0.3357</v>
+        <v>0.1111</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>3</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="B336">
-        <v>0.47860000000000003</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>3</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="B337">
-        <v>0.4143</v>
+        <v>0.53969999999999996</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>3</v>
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="B338">
-        <v>0.4214</v>
+        <v>0.49209999999999998</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>3</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B339">
-        <v>0.42859999999999998</v>
+        <v>0.1429</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>3</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B340">
-        <v>0.37140000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>3</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B341">
-        <v>0.2429</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>3</v>
@@ -4602,7 +4602,7 @@
         <v>1E-4</v>
       </c>
       <c r="B342">
-        <v>0.1071</v>
+        <v>0</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>3</v>
@@ -4613,7 +4613,7 @@
         <v>1E-4</v>
       </c>
       <c r="B343">
-        <v>0.2286</v>
+        <v>0.127</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>3</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B344">
-        <v>0.44290000000000002</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>3</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B345">
-        <v>0.48570000000000002</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>3</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="B346">
-        <v>0.5071</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>3</v>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B347">
-        <v>0.44290000000000002</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>3</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="B348">
-        <v>0.45</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>3</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B349">
-        <v>0.32140000000000002</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>3</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B350">
-        <v>0.30709999999999998</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>3</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B351">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>3</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="B352">
-        <v>0.52859999999999996</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>3</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="B353">
-        <v>0.46429999999999999</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>3</v>
@@ -4734,7 +4734,7 @@
         <v>1E-4</v>
       </c>
       <c r="B354">
-        <v>0.31430000000000002</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>3</v>
@@ -4745,7 +4745,7 @@
         <v>1E-4</v>
       </c>
       <c r="B355">
-        <v>0.25</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>3</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B356">
-        <v>0.17860000000000001</v>
+        <v>0.1905</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>3</v>
@@ -4767,7 +4767,7 @@
         <v>1E-4</v>
       </c>
       <c r="B357">
-        <v>0.21429999999999999</v>
+        <v>0.1905</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>3</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B358">
-        <v>0.25</v>
+        <v>0.127</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>3</v>
@@ -4789,7 +4789,7 @@
         <v>1E-4</v>
       </c>
       <c r="B359">
-        <v>0.42859999999999998</v>
+        <v>0.1905</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>3</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B360">
-        <v>0.59289999999999998</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>3</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="B361">
-        <v>0.5786</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>3</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="B362">
-        <v>0.6</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>3</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="B363">
-        <v>0.53569999999999995</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>3</v>
@@ -4841,10 +4841,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>8.0000000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="B364">
-        <v>0.77139999999999997</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>3</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>8.9999999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="B365">
-        <v>0.80710000000000004</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>3</v>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>8.9999999999999998E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B366">
-        <v>0.75</v>
+        <v>0.49209999999999998</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>3</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B367">
-        <v>0.5</v>
+        <v>0.52380000000000004</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>3</v>
@@ -4888,7 +4888,7 @@
         <v>1E-4</v>
       </c>
       <c r="B368">
-        <v>0.37859999999999999</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>3</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B369">
-        <v>0.44290000000000002</v>
+        <v>0.254</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>3</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B370">
-        <v>0.60709999999999997</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>3</v>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="B371">
-        <v>0.67859999999999998</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>3</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="B372">
-        <v>0.77139999999999997</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>3</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="B373">
-        <v>0.6643</v>
+        <v>0.49209999999999998</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>3</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B374">
-        <v>0.47139999999999999</v>
+        <v>0.58730000000000004</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>3</v>
@@ -4965,7 +4965,7 @@
         <v>1E-4</v>
       </c>
       <c r="B375">
-        <v>0.3286</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>3</v>
@@ -4973,10 +4973,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B376">
-        <v>0.36430000000000001</v>
+        <v>0.1111</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>3</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="B377">
-        <v>0.54290000000000005</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>3</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="B378">
-        <v>0.62860000000000005</v>
+        <v>0.3175</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>3</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>3.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="B379">
-        <v>0.57140000000000002</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>3</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="B380">
-        <v>0.51429999999999998</v>
+        <v>0.52380000000000004</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>4</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>6.0699999999999997E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="B381">
-        <v>0.4214</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>4</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>0.1573</v>
+        <v>2.24E-2</v>
       </c>
       <c r="B382">
-        <v>0.44290000000000002</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>4</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>0.31269999999999998</v>
+        <v>0.1227</v>
       </c>
       <c r="B383">
-        <v>0.4214</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>4</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>0.5887</v>
+        <v>0.35249999999999998</v>
       </c>
       <c r="B384">
-        <v>0.40710000000000002</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>4</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>0.7036</v>
+        <v>0.59830000000000005</v>
       </c>
       <c r="B385">
-        <v>0.40710000000000002</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>4</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>0.7298</v>
+        <v>1</v>
       </c>
       <c r="B386">
-        <v>0.4</v>
+        <v>0.254</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>4</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>0.63870000000000005</v>
+        <v>0.77459999999999996</v>
       </c>
       <c r="B387">
-        <v>0.39290000000000003</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>4</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>0.57410000000000005</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="B388">
-        <v>0.39290000000000003</v>
+        <v>0.254</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>4</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>0.52459999999999996</v>
+        <v>0.70169999999999999</v>
       </c>
       <c r="B389">
-        <v>0.4143</v>
+        <v>0.254</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>4</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>0.58120000000000005</v>
+        <v>0.53269999999999995</v>
       </c>
       <c r="B390">
-        <v>0.4143</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>4</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>0.70609999999999995</v>
+        <v>0.52639999999999998</v>
       </c>
       <c r="B391">
-        <v>0.38569999999999999</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>4</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>0.751</v>
+        <v>0.93640000000000001</v>
       </c>
       <c r="B392">
-        <v>0.37140000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>4</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>0.66300000000000003</v>
+        <v>0.95940000000000003</v>
       </c>
       <c r="B393">
-        <v>0.37140000000000001</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>4</v>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>0.52800000000000002</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="B394">
-        <v>0.4</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>4</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>0.47010000000000002</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="B395">
-        <v>0.40710000000000002</v>
+        <v>0.254</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>4</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>0.32979999999999998</v>
+        <v>0.52949999999999997</v>
       </c>
       <c r="B396">
-        <v>0.4143</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>4</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>0.22539999999999999</v>
+        <v>0.44369999999999998</v>
       </c>
       <c r="B397">
-        <v>0.40710000000000002</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>4</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>0.13020000000000001</v>
+        <v>0.2263</v>
       </c>
       <c r="B398">
-        <v>0.38569999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>4</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>8.8400000000000006E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="B399">
-        <v>0.35709999999999997</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>4</v>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>5.7799999999999997E-2</v>
+        <v>0.1019</v>
       </c>
       <c r="B400">
-        <v>0.34289999999999998</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>4</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>3.5700000000000003E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="B401">
-        <v>0.35709999999999997</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>4</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>1.6199999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="B402">
-        <v>0.4143</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>4</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>1.3100000000000001E-2</v>
+        <v>2.98E-2</v>
       </c>
       <c r="B403">
-        <v>0.43569999999999998</v>
+        <v>0.254</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>4</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>7.1999999999999998E-3</v>
+        <v>0.01</v>
       </c>
       <c r="B404">
-        <v>0.45</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>4</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>5.5999999999999999E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="B405">
-        <v>0.38569999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>4</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>4.8999999999999998E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B406">
-        <v>0.36430000000000001</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>4</v>
@@ -5317,7 +5317,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="B407">
-        <v>0.3357</v>
+        <v>0.254</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>4</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>5.1000000000000004E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="B408">
-        <v>0.35</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>4</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>4.4000000000000003E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="B409">
-        <v>0.36430000000000001</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>4</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>4.1000000000000003E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="B410">
-        <v>0.4143</v>
+        <v>0.254</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>4</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>2.0999999999999999E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="B411">
-        <v>0.43569999999999998</v>
+        <v>0.254</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>4</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>1.9E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="B412">
-        <v>0.43569999999999998</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>4</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>1.8E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B413">
-        <v>0.37859999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>4</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>1.8E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="B414">
-        <v>0.37859999999999999</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>4</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>1.2999999999999999E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="B415">
-        <v>0.39290000000000003</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>4</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>5.9999999999999995E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B416">
-        <v>0.43569999999999998</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>4</v>
@@ -5427,7 +5427,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B417">
-        <v>0.4143</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>3</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B418">
-        <v>0.39290000000000003</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>3</v>
@@ -5446,10 +5446,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>5.0000000000000001E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="B419">
-        <v>0.3286</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>3</v>
@@ -5457,10 +5457,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B420">
-        <v>0.38569999999999999</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>3</v>
@@ -5468,10 +5468,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B421">
-        <v>0.44290000000000002</v>
+        <v>0.254</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>3</v>
@@ -5482,7 +5482,7 @@
         <v>1E-4</v>
       </c>
       <c r="B422">
-        <v>0.51429999999999998</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>3</v>
@@ -5493,7 +5493,7 @@
         <v>1E-4</v>
       </c>
       <c r="B423">
-        <v>0.42859999999999998</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>3</v>
@@ -5504,7 +5504,7 @@
         <v>1E-4</v>
       </c>
       <c r="B424">
-        <v>0.38569999999999999</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>3</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B425">
-        <v>0.51429999999999998</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>3</v>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B426">
-        <v>0.55710000000000004</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>3</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="B427">
-        <v>0.6643</v>
+        <v>0.65080000000000005</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>3</v>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="B428">
-        <v>0.55710000000000004</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>3</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="B429">
-        <v>0.5786</v>
+        <v>0.60319999999999996</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>3</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="B430">
-        <v>0.51429999999999998</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>3</v>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B431">
-        <v>0.57140000000000002</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>3</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="B432">
-        <v>0.61429999999999996</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>3</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B433">
-        <v>0.52859999999999996</v>
+        <v>0.6825</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>3</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B434">
-        <v>0.35709999999999997</v>
+        <v>0.53969999999999996</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>3</v>
@@ -5625,7 +5625,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="B435">
-        <v>0.1714</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>3</v>
@@ -5636,7 +5636,7 @@
         <v>1E-4</v>
       </c>
       <c r="B436">
-        <v>0.21429999999999999</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>3</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B437">
-        <v>0.34289999999999998</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>3</v>
@@ -5658,7 +5658,7 @@
         <v>1E-4</v>
       </c>
       <c r="B438">
-        <v>0.45710000000000001</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>3</v>
@@ -5669,7 +5669,7 @@
         <v>1E-4</v>
       </c>
       <c r="B439">
-        <v>0.5857</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>3</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B440">
-        <v>0.55710000000000004</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>3</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B441">
-        <v>0.5071</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>3</v>
@@ -5702,7 +5702,7 @@
         <v>1E-4</v>
       </c>
       <c r="B442">
-        <v>0.3</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>3</v>
@@ -5713,7 +5713,7 @@
         <v>1E-4</v>
       </c>
       <c r="B443">
-        <v>0.1857</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>3</v>
@@ -5721,10 +5721,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B444">
-        <v>0.1643</v>
+        <v>0.1429</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>3</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B445">
-        <v>0.2286</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>3</v>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B446">
-        <v>0.29289999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>3</v>
@@ -5757,7 +5757,7 @@
         <v>1E-4</v>
       </c>
       <c r="B447">
-        <v>0.42859999999999998</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>3</v>
@@ -5768,7 +5768,7 @@
         <v>1E-4</v>
       </c>
       <c r="B448">
-        <v>0.59289999999999998</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>3</v>
@@ -5776,10 +5776,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B449">
-        <v>0.8286</v>
+        <v>0.53969999999999996</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>3</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>0.79369999999999996</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>3</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="B451">
-        <v>0.94289999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>3</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="B452">
-        <v>0.7</v>
+        <v>0.84130000000000005</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>3</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="B453">
-        <v>0.53569999999999995</v>
+        <v>0.58730000000000004</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>3</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B454">
-        <v>0.52859999999999996</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>3</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B455">
-        <v>0.52139999999999997</v>
+        <v>0.58730000000000004</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>3</v>
@@ -5856,7 +5856,7 @@
         <v>1E-4</v>
       </c>
       <c r="B456">
-        <v>0.44290000000000002</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>3</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B457">
-        <v>0.31430000000000002</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>3</v>
@@ -5878,7 +5878,7 @@
         <v>1E-4</v>
       </c>
       <c r="B458">
-        <v>0.31430000000000002</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>3</v>
@@ -5889,7 +5889,7 @@
         <v>1E-4</v>
       </c>
       <c r="B459">
-        <v>0.3357</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>3</v>
@@ -5900,7 +5900,7 @@
         <v>1E-4</v>
       </c>
       <c r="B460">
-        <v>0.3357</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>3</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B461">
-        <v>0.47860000000000003</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>3</v>
@@ -5922,7 +5922,7 @@
         <v>1E-4</v>
       </c>
       <c r="B462">
-        <v>0.46429999999999999</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>3</v>
@@ -5933,7 +5933,7 @@
         <v>1E-4</v>
       </c>
       <c r="B463">
-        <v>0.4929</v>
+        <v>0.58730000000000004</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>3</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B464">
-        <v>0.3</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>3</v>
@@ -5955,7 +5955,7 @@
         <v>1E-4</v>
       </c>
       <c r="B465">
-        <v>0.37859999999999999</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>3</v>
@@ -5963,10 +5963,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B466">
-        <v>0.36430000000000001</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>3</v>
@@ -5977,7 +5977,7 @@
         <v>1E-4</v>
       </c>
       <c r="B467">
-        <v>0.3357</v>
+        <v>0.52380000000000004</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>3</v>
@@ -5988,7 +5988,7 @@
         <v>1E-4</v>
       </c>
       <c r="B468">
-        <v>0.28570000000000001</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>3</v>
@@ -5999,7 +5999,7 @@
         <v>1E-4</v>
       </c>
       <c r="B469">
-        <v>0.4214</v>
+        <v>0.1905</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>3</v>
@@ -6007,10 +6007,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B470">
-        <v>0.51429999999999998</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>3</v>
@@ -6018,10 +6018,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B471">
-        <v>0.43569999999999998</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>3</v>
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="B472">
-        <v>0.42859999999999998</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>3</v>
@@ -6040,10 +6040,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B473">
-        <v>0.67859999999999998</v>
+        <v>0.1905</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>3</v>
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="B474">
-        <v>0.78569999999999995</v>
+        <v>0.76190000000000002</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>3</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="B475">
-        <v>0.73570000000000002</v>
+        <v>1</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>3</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="B476">
-        <v>0.63570000000000004</v>
+        <v>0.60319999999999996</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>3</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="B477">
-        <v>0.6643</v>
+        <v>0.49209999999999998</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>3</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="B478">
-        <v>0.69289999999999996</v>
+        <v>0.79369999999999996</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>3</v>
@@ -6106,10 +6106,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B479">
-        <v>0.45710000000000001</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>3</v>
@@ -6120,7 +6120,7 @@
         <v>1E-4</v>
       </c>
       <c r="B480">
-        <v>0.40710000000000002</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>3</v>
@@ -6128,10 +6128,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B481">
-        <v>0.25</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>3</v>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B482">
-        <v>0.4143</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>3</v>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B483">
-        <v>0.45710000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>3</v>
@@ -6161,10 +6161,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B484">
-        <v>0.55710000000000004</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>3</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>3.0999999999999999E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="B485">
-        <v>0.4929</v>
+        <v>0.60319999999999996</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>3</v>
@@ -6183,10 +6183,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>2.46E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="B486">
-        <v>0.37140000000000001</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>4</v>
@@ -6194,10 +6194,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>0.1331</v>
+        <v>1.37E-2</v>
       </c>
       <c r="B487">
-        <v>0.3</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>4</v>
@@ -6205,10 +6205,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>0.28820000000000001</v>
+        <v>0.1017</v>
       </c>
       <c r="B488">
-        <v>0.2429</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>4</v>
@@ -6216,10 +6216,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>0.36099999999999999</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="B489">
-        <v>0.2429</v>
+        <v>0.1905</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>4</v>
@@ -6227,10 +6227,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>0.40050000000000002</v>
+        <v>0.63290000000000002</v>
       </c>
       <c r="B490">
-        <v>0.2429</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>4</v>
@@ -6238,10 +6238,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>0.34939999999999999</v>
+        <v>0.56179999999999997</v>
       </c>
       <c r="B491">
-        <v>0.2286</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>4</v>
@@ -6249,10 +6249,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>0.41570000000000001</v>
+        <v>0.61070000000000002</v>
       </c>
       <c r="B492">
-        <v>0.2</v>
+        <v>0.1905</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>4</v>
@@ -6260,10 +6260,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>0.36220000000000002</v>
+        <v>0.58660000000000001</v>
       </c>
       <c r="B493">
-        <v>0.1857</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>4</v>
@@ -6271,10 +6271,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>0.40360000000000001</v>
+        <v>0.64559999999999995</v>
       </c>
       <c r="B494">
-        <v>0.1857</v>
+        <v>0.1429</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>4</v>
@@ -6282,10 +6282,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>0.32040000000000002</v>
+        <v>0.48139999999999999</v>
       </c>
       <c r="B495">
-        <v>0.1857</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>4</v>
@@ -6293,10 +6293,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>0.3019</v>
+        <v>0.59819999999999995</v>
       </c>
       <c r="B496">
-        <v>0.17860000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>4</v>
@@ -6304,10 +6304,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>0.22259999999999999</v>
+        <v>0.31009999999999999</v>
       </c>
       <c r="B497">
-        <v>0.1714</v>
+        <v>0.1429</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>4</v>
@@ -6315,10 +6315,10 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>0.2046</v>
+        <v>0.3468</v>
       </c>
       <c r="B498">
-        <v>0.17860000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>4</v>
@@ -6326,10 +6326,10 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>0.1933</v>
+        <v>0.2928</v>
       </c>
       <c r="B499">
-        <v>0.19289999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>4</v>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>0.15429999999999999</v>
+        <v>0.27029999999999998</v>
       </c>
       <c r="B500">
-        <v>0.22140000000000001</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>4</v>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>0.11840000000000001</v>
+        <v>0.26140000000000002</v>
       </c>
       <c r="B501">
-        <v>0.21429999999999999</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>4</v>
@@ -6359,10 +6359,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>6.3299999999999995E-2</v>
+        <v>0.13070000000000001</v>
       </c>
       <c r="B502">
-        <v>0.20710000000000001</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>4</v>
@@ -6370,10 +6370,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>3.56E-2</v>
+        <v>0.1055</v>
       </c>
       <c r="B503">
-        <v>0.20710000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>4</v>
@@ -6381,10 +6381,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>1.54E-2</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="B504">
-        <v>0.21429999999999999</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>4</v>
@@ -6392,10 +6392,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>7.4999999999999997E-3</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="B505">
-        <v>0.21429999999999999</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>4</v>
@@ -6403,10 +6403,10 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>6.0000000000000001E-3</v>
+        <v>1.35E-2</v>
       </c>
       <c r="B506">
-        <v>0.19289999999999999</v>
+        <v>0.1905</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>4</v>
@@ -6414,10 +6414,10 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>3.3999999999999998E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="B507">
-        <v>0.2</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>4</v>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>1.9E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="B508">
-        <v>0.19289999999999999</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>4</v>
@@ -6436,10 +6436,10 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>8.9999999999999998E-4</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="B509">
-        <v>0.20710000000000001</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>4</v>
@@ -6450,7 +6450,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B510">
-        <v>0.2286</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>4</v>
@@ -6458,10 +6458,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>5.0000000000000001E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="B511">
-        <v>0.27860000000000001</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>4</v>
@@ -6469,10 +6469,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>4.0000000000000002E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B512">
-        <v>0.3357</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>4</v>
@@ -6480,10 +6480,10 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="B513">
-        <v>0.37859999999999999</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>4</v>
@@ -6491,10 +6491,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B514">
-        <v>0.40710000000000002</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>4</v>
@@ -6502,10 +6502,10 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B515">
-        <v>0.38569999999999999</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>4</v>
@@ -6513,10 +6513,10 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B516">
-        <v>0.45710000000000001</v>
+        <v>0.3175</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>3</v>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B517">
-        <v>0.45710000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>3</v>
@@ -6538,7 +6538,7 @@
         <v>1E-4</v>
       </c>
       <c r="B518">
-        <v>0.46429999999999999</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>3</v>
@@ -6546,10 +6546,10 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B519">
-        <v>0.45710000000000001</v>
+        <v>0.41270000000000001</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>3</v>
@@ -6557,10 +6557,10 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B520">
-        <v>0.52139999999999997</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>3</v>
@@ -6571,7 +6571,7 @@
         <v>1E-4</v>
       </c>
       <c r="B521">
-        <v>0.56430000000000002</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>3</v>
@@ -6582,7 +6582,7 @@
         <v>1E-4</v>
       </c>
       <c r="B522">
-        <v>0.45</v>
+        <v>0.6825</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>3</v>
@@ -6593,7 +6593,7 @@
         <v>1E-4</v>
       </c>
       <c r="B523">
-        <v>0.30709999999999998</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>3</v>
@@ -6601,10 +6601,10 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B524">
-        <v>0.2571</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>3</v>
@@ -6615,7 +6615,7 @@
         <v>1E-4</v>
       </c>
       <c r="B525">
-        <v>0.3</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>3</v>
@@ -6626,7 +6626,7 @@
         <v>1E-4</v>
       </c>
       <c r="B526">
-        <v>0.38569999999999999</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>3</v>
@@ -6637,7 +6637,7 @@
         <v>1E-4</v>
       </c>
       <c r="B527">
-        <v>0.4143</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>3</v>
@@ -6645,10 +6645,10 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B528">
-        <v>0.39290000000000003</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>3</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B529">
-        <v>0.45710000000000001</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>3</v>
@@ -6667,10 +6667,10 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B530">
-        <v>0.45710000000000001</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>3</v>
@@ -6678,10 +6678,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B531">
-        <v>0.47860000000000003</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>3</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="B532">
-        <v>0.36430000000000001</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>3</v>
@@ -6700,10 +6700,10 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B533">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>3</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="B534">
-        <v>0.6</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>3</v>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="B535">
-        <v>0.65710000000000002</v>
+        <v>0.873</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>3</v>
@@ -6733,10 +6733,10 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B536">
-        <v>0.47139999999999999</v>
+        <v>0.746</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>3</v>
@@ -6747,7 +6747,7 @@
         <v>1E-4</v>
       </c>
       <c r="B537">
-        <v>0.3357</v>
+        <v>0.65080000000000005</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>3</v>
@@ -6758,7 +6758,7 @@
         <v>1E-4</v>
       </c>
       <c r="B538">
-        <v>0.30709999999999998</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>3</v>
@@ -6766,10 +6766,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B539">
-        <v>0.36430000000000001</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>3</v>
@@ -6777,10 +6777,10 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B540">
-        <v>0.44290000000000002</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>3</v>
@@ -6788,10 +6788,10 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B541">
-        <v>0.55000000000000004</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>3</v>
@@ -6799,10 +6799,10 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B542">
-        <v>0.54290000000000005</v>
+        <v>0.58730000000000004</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>3</v>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B543">
-        <v>0.54290000000000005</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>3</v>
@@ -6821,10 +6821,10 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B544">
-        <v>0.52859999999999996</v>
+        <v>0.52380000000000004</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>3</v>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="B545">
-        <v>0.61429999999999996</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>3</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="B546">
-        <v>0.69289999999999996</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>3</v>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="B547">
-        <v>0.72860000000000003</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>3</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="B548">
-        <v>0.69289999999999996</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>3</v>
@@ -6876,10 +6876,10 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B549">
-        <v>0.70709999999999995</v>
+        <v>0.69840000000000002</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>3</v>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="B550">
-        <v>0.73570000000000002</v>
+        <v>0.746</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>3</v>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="B551">
-        <v>0.65710000000000002</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>3</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="B552">
-        <v>0.57140000000000002</v>
+        <v>0.82540000000000002</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>3</v>
@@ -6923,7 +6923,7 @@
         <v>1E-4</v>
       </c>
       <c r="B553">
-        <v>0.37859999999999999</v>
+        <v>0.49209999999999998</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>3</v>
@@ -6934,7 +6934,7 @@
         <v>1E-4</v>
       </c>
       <c r="B554">
-        <v>0.44290000000000002</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>3</v>
@@ -6945,7 +6945,7 @@
         <v>1E-4</v>
       </c>
       <c r="B555">
-        <v>0.37140000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>3</v>
@@ -6953,10 +6953,10 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B556">
-        <v>0.31430000000000002</v>
+        <v>0.60319999999999996</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>3</v>
@@ -6967,7 +6967,7 @@
         <v>1E-4</v>
       </c>
       <c r="B557">
-        <v>0.27860000000000001</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>3</v>

--- a/TK/thongKe.xlsx
+++ b/TK/thongKe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ky2_2122\XL tín hiệu số\CK\TK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE0FEA2-6AD6-454D-8C54-AD8AFE287194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733623E0-0A14-4568-8907-8F060D51CD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8A0C4B13-D321-42AC-9D1D-8AEB5029EB76}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:M559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -471,14 +471,14 @@
       </c>
       <c r="F2">
         <f>AVERAGE(A2:A46)</f>
-        <v>0</v>
+        <v>7.0222222222222225E-4</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2">
         <f xml:space="preserve"> _xlfn.VAR.S(A2:A46)</f>
-        <v>0</v>
+        <v>1.2771131313131313E-5</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -510,14 +510,14 @@
       </c>
       <c r="F3">
         <f xml:space="preserve"> AVERAGE(A47:A82)</f>
-        <v>5.2888888888888888E-2</v>
+        <v>0.27301944444444454</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3">
         <f xml:space="preserve"> _xlfn.VAR.S(A47:A82)</f>
-        <v>1.1625941015873015E-2</v>
+        <v>0.11651499189682535</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B4">
         <v>1.5900000000000001E-2</v>
@@ -549,14 +549,14 @@
       </c>
       <c r="F4">
         <f xml:space="preserve"> AVERAGE(A83:A154)</f>
-        <v>1.527777777777778E-5</v>
+        <v>9.4444444444444496E-5</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4">
         <f xml:space="preserve"> _xlfn.VAR.S(A83:A154)</f>
-        <v>2.1576682316118841E-9</v>
+        <v>1.574334898278561E-8</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -588,14 +588,14 @@
       </c>
       <c r="F5">
         <f xml:space="preserve"> AVERAGE(A155:A186)</f>
-        <v>6.3140624999999992E-2</v>
+        <v>0.11874062499999999</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5">
         <f xml:space="preserve"> _xlfn.VAR.S(A155:A186)</f>
-        <v>6.2110689415322568E-3</v>
+        <v>1.6484381844758072E-2</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -627,14 +627,14 @@
       </c>
       <c r="F6">
         <f xml:space="preserve"> AVERAGE(A187:A270)</f>
-        <v>4.4047619047619027E-5</v>
+        <v>3.3214285714285713E-4</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6">
         <f xml:space="preserve"> _xlfn.VAR.S(A187:A270)</f>
-        <v>4.9039013195639651E-9</v>
+        <v>5.4822074010327013E-6</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -666,14 +666,14 @@
       </c>
       <c r="F7">
         <f xml:space="preserve"> AVERAGE(A271:A287)</f>
-        <v>8.2894117647058813E-2</v>
+        <v>0.10121176470588236</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="H7">
         <f xml:space="preserve"> _xlfn.VAR.S(A271:A287)</f>
-        <v>2.8445480882352964E-3</v>
+        <v>3.7717986029411777E-3</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B8">
         <v>1.5900000000000001E-2</v>
@@ -704,34 +704,34 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <f xml:space="preserve"> AVERAGE(A283:A379)</f>
-        <v>2.0865979381443269E-3</v>
+        <f xml:space="preserve"> AVERAGE(A288:A379)</f>
+        <v>2.3152173913043459E-4</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8">
-        <f xml:space="preserve"> _xlfn.VAR.S(A283:A379)</f>
-        <v>8.3394089347079019E-5</v>
+        <f xml:space="preserve"> _xlfn.VAR.S(A288:A379)</f>
+        <v>4.2086359292881104E-7</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
       </c>
       <c r="K8">
-        <f xml:space="preserve"> AVERAGE(B283:B379)</f>
-        <v>0.3294061855670104</v>
+        <f xml:space="preserve"> AVERAGE(B288:B379)</f>
+        <v>0.32953804347826099</v>
       </c>
       <c r="L8" t="s">
         <v>7</v>
       </c>
       <c r="M8">
-        <f xml:space="preserve"> _xlfn.VAR.S(B283:B379)</f>
-        <v>2.1111074753006775E-2</v>
+        <f xml:space="preserve"> _xlfn.VAR.S(B288:B379)</f>
+        <v>2.216769249283318E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -744,14 +744,14 @@
       </c>
       <c r="F9">
         <f xml:space="preserve"> AVERAGE(A380:A416)</f>
-        <v>0.27640540540540548</v>
+        <v>0.24164324324324324</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
       <c r="H9">
         <f xml:space="preserve"> _xlfn.VAR.S(A380:A416)</f>
-        <v>0.11454251108108106</v>
+        <v>8.0058214744744741E-2</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -783,14 +783,14 @@
       </c>
       <c r="F10">
         <f xml:space="preserve"> AVERAGE(A417:A485)</f>
-        <v>1.1884057971014494E-4</v>
+        <v>1.3188405797101452E-4</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
       <c r="H10">
         <f xml:space="preserve"> _xlfn.VAR.S(A417:A485)</f>
-        <v>2.037510656436493E-8</v>
+        <v>1.4220375106564361E-7</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
@@ -822,14 +822,14 @@
       </c>
       <c r="F11">
         <f xml:space="preserve"> AVERAGE(A486:A515)</f>
-        <v>0.21846333333333334</v>
+        <v>0.14631999999999995</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
       <c r="H11">
         <f xml:space="preserve"> _xlfn.VAR.S(A486:A515)</f>
-        <v>6.0785567919540213E-2</v>
+        <v>2.4303711310344839E-2</v>
       </c>
       <c r="J11" t="s">
         <v>6</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -861,14 +861,14 @@
       </c>
       <c r="F12">
         <f>AVERAGE(A516:A557)</f>
-        <v>8.5714285714285658E-5</v>
+        <v>4.7619047619047627E-5</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
       <c r="H12">
         <f xml:space="preserve"> _xlfn.VAR.S(A516:A557)</f>
-        <v>4.6689895470383289E-9</v>
+        <v>2.5551684088269439E-9</v>
       </c>
       <c r="J12" t="s">
         <v>5</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="B13">
         <v>1.5900000000000001E-2</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -922,24 +922,24 @@
       </c>
       <c r="F15">
         <f xml:space="preserve"> AVERAGE(F2,F4,F6,F8,F10,F12)</f>
-        <v>3.9174636673235905E-4</v>
+        <v>2.5663906142167013E-4</v>
       </c>
       <c r="H15">
         <f xml:space="preserve"> AVERAGE(H2,H4,H6,H8,H10,H12)</f>
-        <v>1.3904365835456934E-5</v>
+        <v>3.1391174292583469E-6</v>
       </c>
       <c r="K15">
         <f xml:space="preserve"> AVERAGE(K2,K4,K6,K8,K10,K12)</f>
-        <v>0.27918430025488955</v>
+        <v>0.27920627657343133</v>
       </c>
       <c r="M15">
         <f xml:space="preserve"> AVERAGE(M2,M4,M6,M8,M10,M12)</f>
-        <v>1.949920561258708E-2</v>
+        <v>1.9675308569224812E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -952,11 +952,11 @@
       </c>
       <c r="F16">
         <f xml:space="preserve"> AVERAGE(F3,F5,F7,F9,F11)</f>
-        <v>0.1387584740549373</v>
+        <v>0.17618701547871402</v>
       </c>
       <c r="H16">
         <f xml:space="preserve"> AVERAGE(H3,H5,H7,H9,H11)</f>
-        <v>3.9201927409252366E-2</v>
+        <v>4.8226619679922839E-2</v>
       </c>
       <c r="K16">
         <f xml:space="preserve"> AVERAGE(K3,K5,K7,K9,K11)</f>
@@ -969,7 +969,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -993,16 +993,16 @@
       </c>
       <c r="G18">
         <f xml:space="preserve"> ((F15 + H15) + (F16 - H16)) / 2</f>
-        <v>4.9981098689126376E-2</v>
+        <v>6.411008698882105E-2</v>
       </c>
       <c r="L18">
         <f xml:space="preserve"> ((K15 + M15) + (K16 - M16)) / 2</f>
-        <v>0.25446720784133769</v>
+        <v>0.25456624747892748</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1011,8 +1011,8 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <f xml:space="preserve"> F15 + H15</f>
-        <v>4.05650732567816E-4</v>
+        <f xml:space="preserve"> F15 - H15</f>
+        <v>2.5349994399241177E-4</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B21">
         <v>3.1699999999999999E-2</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B22">
         <v>3.1699999999999999E-2</v>
@@ -1047,10 +1047,18 @@
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F22">
+        <f xml:space="preserve"> AVERAGE(A2:A46,A83:A154,A187:A270,A288:A379,A417:A485,A516:A557)</f>
+        <v>2.4430693069307059E-4</v>
+      </c>
+      <c r="H22">
+        <f xml:space="preserve"> _xlfn.VAR.S(A2:A46,A83:A154,A187:A270,A288:A379,A417:A485,A516:A557)</f>
+        <v>2.680786367098244E-6</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B23">
         <v>1.5900000000000001E-2</v>
@@ -1058,10 +1066,14 @@
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G23">
+        <f xml:space="preserve"> F22 - H22</f>
+        <v>2.4162614432597234E-4</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B24">
         <v>3.1699999999999999E-2</v>
@@ -1072,7 +1084,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B25">
         <v>7.9399999999999998E-2</v>
@@ -1082,11 +1094,11 @@
       </c>
       <c r="F25">
         <f xml:space="preserve"> AVERAGE(A2:A46,A83:A154,A187:A270,A288:A379,A417:A485,A516:A557)</f>
-        <v>8.4900990099009944E-5</v>
+        <v>2.4430693069307059E-4</v>
       </c>
       <c r="G25">
         <f xml:space="preserve"> _xlfn.VAR.S(A2:A46,A83:A154,A187:A270,A288:A379,A417:A485,A516:A557)</f>
-        <v>9.269949389479923E-8</v>
+        <v>2.680786367098244E-6</v>
       </c>
       <c r="J25">
         <f xml:space="preserve"> AVERAGE(B2:B46,B83:B154,B187:B270,B288:B379,B417:B485,B516:B557)</f>
@@ -1099,7 +1111,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B26">
         <v>3.1699999999999999E-2</v>
@@ -1109,11 +1121,11 @@
       </c>
       <c r="F26">
         <f xml:space="preserve"> AVERAGE(A47:A82,A155:A186,A271:A287,A380:A416,A486:A515)</f>
-        <v>0.14549078947368421</v>
+        <v>0.18868026315789468</v>
       </c>
       <c r="G26">
         <f xml:space="preserve"> _xlfn.VAR.S(A47:A82,A155:A186,A271:A287,A380:A416,A486:A515)</f>
-        <v>5.2433645609968639E-2</v>
+        <v>5.9182622919135598E-2</v>
       </c>
       <c r="J26">
         <f xml:space="preserve"> AVERAGE(B47:B82,B155:B186,B271:B287,B380:B416,B486:B515)</f>
@@ -1126,7 +1138,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B27">
         <v>7.9399999999999998E-2</v>
@@ -1137,7 +1149,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1147,7 +1159,7 @@
       </c>
       <c r="G28">
         <f xml:space="preserve"> ((F25 + G25) + (F26 - G26)) / 2</f>
-        <v>4.6571068776654241E-2</v>
+        <v>6.4872313977909629E-2</v>
       </c>
       <c r="K28">
         <f xml:space="preserve"> ((J25 + K25) + (J26 - K26)) / 2</f>
@@ -1156,7 +1168,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B29">
         <v>3.1699999999999999E-2</v>
@@ -1167,7 +1179,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B30">
         <v>1.5900000000000001E-2</v>
@@ -1178,7 +1190,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1189,7 +1201,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B32">
         <v>9.5200000000000007E-2</v>
@@ -1200,7 +1212,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B33">
         <v>7.9399999999999998E-2</v>
@@ -1211,7 +1223,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1222,7 +1234,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1233,7 +1245,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1244,7 +1256,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1255,7 +1267,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B38">
         <v>4.7600000000000003E-2</v>
@@ -1266,7 +1278,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B39">
         <v>3.1699999999999999E-2</v>
@@ -1277,7 +1289,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1288,7 +1300,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1299,7 +1311,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1310,7 +1322,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B43">
         <v>1.5900000000000001E-2</v>
@@ -1332,7 +1344,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="B45">
         <v>4.7600000000000003E-2</v>
@@ -1343,7 +1355,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0</v>
+        <v>2.4E-2</v>
       </c>
       <c r="B46">
         <v>6.3500000000000001E-2</v>
@@ -1354,7 +1366,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0</v>
+        <v>7.9600000000000004E-2</v>
       </c>
       <c r="B47">
         <v>1.5900000000000001E-2</v>
@@ -1365,7 +1377,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1.2200000000000001E-2</v>
+        <v>0.18679999999999999</v>
       </c>
       <c r="B48">
         <v>1.5900000000000001E-2</v>
@@ -1376,7 +1388,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>7.9000000000000008E-3</v>
+        <v>0.39889999999999998</v>
       </c>
       <c r="B49">
         <v>1.5900000000000001E-2</v>
@@ -1387,7 +1399,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1.49E-2</v>
+        <v>0.54190000000000005</v>
       </c>
       <c r="B50">
         <v>1.5900000000000001E-2</v>
@@ -1398,7 +1410,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.30170000000000002</v>
+        <v>0.62629999999999997</v>
       </c>
       <c r="B51">
         <v>3.1699999999999999E-2</v>
@@ -1409,7 +1421,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4.6100000000000002E-2</v>
+        <v>0.79149999999999998</v>
       </c>
       <c r="B52">
         <v>3.1699999999999999E-2</v>
@@ -1420,7 +1432,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1.8700000000000001E-2</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="B53">
         <v>1.5900000000000001E-2</v>
@@ -1431,7 +1443,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.52139999999999997</v>
+        <v>1</v>
       </c>
       <c r="B54">
         <v>3.1699999999999999E-2</v>
@@ -1442,7 +1454,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.11409999999999999</v>
+        <v>0.9153</v>
       </c>
       <c r="B55">
         <v>3.1699999999999999E-2</v>
@@ -1453,7 +1465,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1.01E-2</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="B56">
         <v>3.1699999999999999E-2</v>
@@ -1464,7 +1476,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.1855</v>
+        <v>0.81010000000000004</v>
       </c>
       <c r="B57">
         <v>7.9399999999999998E-2</v>
@@ -1475,7 +1487,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2.5899999999999999E-2</v>
+        <v>0.69679999999999997</v>
       </c>
       <c r="B58">
         <v>3.1699999999999999E-2</v>
@@ -1486,7 +1498,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.21479999999999999</v>
+        <v>0.62270000000000003</v>
       </c>
       <c r="B59">
         <v>4.7600000000000003E-2</v>
@@ -1497,7 +1509,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.1242</v>
+        <v>0.45850000000000002</v>
       </c>
       <c r="B60">
         <v>3.1699999999999999E-2</v>
@@ -1508,7 +1520,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1.78E-2</v>
+        <v>0.3458</v>
       </c>
       <c r="B61">
         <v>6.3500000000000001E-2</v>
@@ -1519,7 +1531,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.16389999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="B62">
         <v>4.7600000000000003E-2</v>
@@ -1530,7 +1542,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>6.54E-2</v>
+        <v>0.15060000000000001</v>
       </c>
       <c r="B63">
         <v>3.1699999999999999E-2</v>
@@ -1541,7 +1553,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>7.4999999999999997E-3</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="B64">
         <v>3.1699999999999999E-2</v>
@@ -1552,7 +1564,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1.52E-2</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="B65">
         <v>6.3500000000000001E-2</v>
@@ -1563,7 +1575,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1.6299999999999999E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="B66">
         <v>4.7600000000000003E-2</v>
@@ -1574,7 +1586,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>3.3E-3</v>
+        <v>1.49E-2</v>
       </c>
       <c r="B67">
         <v>3.1699999999999999E-2</v>
@@ -1585,7 +1597,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>3.3999999999999998E-3</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="B68">
         <v>0.1111</v>
@@ -1596,7 +1608,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="B69">
         <v>4.7600000000000003E-2</v>
@@ -1607,7 +1619,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>2E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="B70">
         <v>4.7600000000000003E-2</v>
@@ -1618,7 +1630,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1.2999999999999999E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="B71">
         <v>6.3500000000000001E-2</v>
@@ -1629,7 +1641,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1.6000000000000001E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="B72">
         <v>4.7600000000000003E-2</v>
@@ -1640,7 +1652,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="B73">
         <v>7.9399999999999998E-2</v>
@@ -1651,7 +1663,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>5.0000000000000001E-4</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="B74">
         <v>6.3500000000000001E-2</v>
@@ -1662,7 +1674,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>2.5000000000000001E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="B75">
         <v>4.7600000000000003E-2</v>
@@ -1673,7 +1685,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>6.9999999999999999E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="B76">
         <v>4.7600000000000003E-2</v>
@@ -1684,7 +1696,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>8.0000000000000004E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B77">
         <v>7.9399999999999998E-2</v>
@@ -1695,7 +1707,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>2.0000000000000001E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B78">
         <v>3.1699999999999999E-2</v>
@@ -1706,7 +1718,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>2.0000000000000001E-4</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B79">
         <v>4.7600000000000003E-2</v>
@@ -1717,7 +1729,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>5.0000000000000001E-4</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B80">
         <v>3.1699999999999999E-2</v>
@@ -1728,7 +1740,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>5.9999999999999995E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="B81">
         <v>4.7600000000000003E-2</v>
@@ -1750,7 +1762,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B83">
         <v>7.9399999999999998E-2</v>
@@ -1761,7 +1773,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B84">
         <v>0.1111</v>
@@ -1772,7 +1784,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B85">
         <v>9.5200000000000007E-2</v>
@@ -1783,7 +1795,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>1E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="B86">
         <v>7.9399999999999998E-2</v>
@@ -1794,7 +1806,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="B87">
         <v>6.3500000000000001E-2</v>
@@ -1838,7 +1850,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B91">
         <v>0.1111</v>
@@ -1849,7 +1861,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B92">
         <v>0.20630000000000001</v>
@@ -1860,7 +1872,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B93">
         <v>0.17460000000000001</v>
@@ -1871,7 +1883,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B94">
         <v>4.7600000000000003E-2</v>
@@ -1882,7 +1894,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B95">
         <v>9.5200000000000007E-2</v>
@@ -1893,7 +1905,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B96">
         <v>0.1905</v>
@@ -1904,7 +1916,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B97">
         <v>4.7600000000000003E-2</v>
@@ -2025,7 +2037,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B108">
         <v>0.127</v>
@@ -2036,7 +2048,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2058,7 +2070,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B111">
         <v>0.15870000000000001</v>
@@ -2069,7 +2081,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B112">
         <v>0.1429</v>
@@ -2080,7 +2092,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B113">
         <v>9.5200000000000007E-2</v>
@@ -2190,7 +2202,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B123">
         <v>6.3500000000000001E-2</v>
@@ -2201,7 +2213,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B124">
         <v>0.15870000000000001</v>
@@ -2223,7 +2235,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B126">
         <v>4.7600000000000003E-2</v>
@@ -2234,7 +2246,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B127">
         <v>3.1699999999999999E-2</v>
@@ -2245,7 +2257,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B128">
         <v>4.7600000000000003E-2</v>
@@ -2256,7 +2268,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B129">
         <v>0.1429</v>
@@ -2267,7 +2279,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B130">
         <v>9.5200000000000007E-2</v>
@@ -2278,7 +2290,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B131">
         <v>0.127</v>
@@ -2289,7 +2301,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B132">
         <v>7.9399999999999998E-2</v>
@@ -2300,7 +2312,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B133">
         <v>0.1905</v>
@@ -2344,7 +2356,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B137">
         <v>0.3175</v>
@@ -2355,7 +2367,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B138">
         <v>0.17460000000000001</v>
@@ -2366,7 +2378,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B139">
         <v>0.1429</v>
@@ -2377,7 +2389,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B140">
         <v>7.9399999999999998E-2</v>
@@ -2388,7 +2400,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B141">
         <v>6.3500000000000001E-2</v>
@@ -2399,7 +2411,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B142">
         <v>0.1905</v>
@@ -2410,7 +2422,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B143">
         <v>7.9399999999999998E-2</v>
@@ -2421,7 +2433,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B144">
         <v>3.1699999999999999E-2</v>
@@ -2443,7 +2455,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B146">
         <v>0.17460000000000001</v>
@@ -2454,7 +2466,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B147">
         <v>0.20630000000000001</v>
@@ -2465,7 +2477,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B148">
         <v>0.15870000000000001</v>
@@ -2531,7 +2543,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="B154">
         <v>0.30159999999999998</v>
@@ -2542,7 +2554,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="B155">
         <v>0.28570000000000001</v>
@@ -2553,7 +2565,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="B156">
         <v>0.15870000000000001</v>
@@ -2564,7 +2576,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>3.3E-3</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="B157">
         <v>0.1111</v>
@@ -2575,7 +2587,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>1.3899999999999999E-2</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="B158">
         <v>0.17460000000000001</v>
@@ -2586,7 +2598,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>4.9700000000000001E-2</v>
+        <v>0.10929999999999999</v>
       </c>
       <c r="B159">
         <v>0.15870000000000001</v>
@@ -2597,7 +2609,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>2.46E-2</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="B160">
         <v>9.5200000000000007E-2</v>
@@ -2608,7 +2620,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>5.7700000000000001E-2</v>
+        <v>0.23719999999999999</v>
       </c>
       <c r="B161">
         <v>0.26979999999999998</v>
@@ -2619,7 +2631,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.19650000000000001</v>
+        <v>0.27329999999999999</v>
       </c>
       <c r="B162">
         <v>0.17460000000000001</v>
@@ -2630,7 +2642,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>0.10249999999999999</v>
+        <v>0.29289999999999999</v>
       </c>
       <c r="B163">
         <v>0.17460000000000001</v>
@@ -2641,7 +2653,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.13350000000000001</v>
+        <v>0.3014</v>
       </c>
       <c r="B164">
         <v>0.20630000000000001</v>
@@ -2652,7 +2664,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.23419999999999999</v>
+        <v>0.32379999999999998</v>
       </c>
       <c r="B165">
         <v>0.20630000000000001</v>
@@ -2663,7 +2675,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.1021</v>
+        <v>0.34010000000000001</v>
       </c>
       <c r="B166">
         <v>0.1111</v>
@@ -2674,7 +2686,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.1487</v>
+        <v>0.3392</v>
       </c>
       <c r="B167">
         <v>0.17460000000000001</v>
@@ -2685,7 +2697,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.29339999999999999</v>
+        <v>0.31409999999999999</v>
       </c>
       <c r="B168">
         <v>0.23810000000000001</v>
@@ -2696,7 +2708,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.12529999999999999</v>
+        <v>0.26640000000000003</v>
       </c>
       <c r="B169">
         <v>7.9399999999999998E-2</v>
@@ -2707,7 +2719,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>0.12959999999999999</v>
+        <v>0.21290000000000001</v>
       </c>
       <c r="B170">
         <v>0.20630000000000001</v>
@@ -2718,7 +2730,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>0.161</v>
+        <v>0.17180000000000001</v>
       </c>
       <c r="B171">
         <v>0.17460000000000001</v>
@@ -2729,7 +2741,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>5.2900000000000003E-2</v>
+        <v>0.114</v>
       </c>
       <c r="B172">
         <v>0.1111</v>
@@ -2740,7 +2752,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>6.5600000000000006E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="B173">
         <v>0.20630000000000001</v>
@@ -2751,7 +2763,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>8.5199999999999998E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="B174">
         <v>0.1111</v>
@@ -2762,7 +2774,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>1.34E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="B175">
         <v>0.1905</v>
@@ -2773,7 +2785,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>9.7999999999999997E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="B176">
         <v>0.1111</v>
@@ -2784,7 +2796,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>4.1000000000000003E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="B177">
         <v>0.15870000000000001</v>
@@ -2795,7 +2807,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>2.7000000000000001E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="B178">
         <v>0.127</v>
@@ -2806,7 +2818,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>2E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="B179">
         <v>0.1111</v>
@@ -2817,7 +2829,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>2.0999999999999999E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="B180">
         <v>0.254</v>
@@ -2828,7 +2840,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>3.3E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="B181">
         <v>0.1111</v>
@@ -2839,7 +2851,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1.1000000000000001E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B182">
         <v>0.30159999999999998</v>
@@ -2850,7 +2862,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B183">
         <v>0.254</v>
@@ -2883,7 +2895,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B186">
         <v>0.23810000000000001</v>
@@ -2894,7 +2906,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B187">
         <v>0.254</v>
@@ -2905,7 +2917,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B188">
         <v>0.3175</v>
@@ -2916,7 +2928,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B189">
         <v>0.26979999999999998</v>
@@ -2927,7 +2939,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B190">
         <v>0.22220000000000001</v>
@@ -2938,7 +2950,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B191">
         <v>0.254</v>
@@ -2960,7 +2972,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B193">
         <v>0.1111</v>
@@ -2971,7 +2983,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B194">
         <v>0.20630000000000001</v>
@@ -2993,7 +3005,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B196">
         <v>0.22220000000000001</v>
@@ -3015,7 +3027,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B198">
         <v>0.22220000000000001</v>
@@ -3026,7 +3038,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B199">
         <v>0.17460000000000001</v>
@@ -3037,7 +3049,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B200">
         <v>0.23810000000000001</v>
@@ -3081,7 +3093,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B204">
         <v>0.127</v>
@@ -3103,7 +3115,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B206">
         <v>0.1905</v>
@@ -3125,7 +3137,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B208">
         <v>0.22220000000000001</v>
@@ -3136,7 +3148,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B209">
         <v>0.28570000000000001</v>
@@ -3180,7 +3192,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B213">
         <v>0.28570000000000001</v>
@@ -3191,7 +3203,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B214">
         <v>0.26979999999999998</v>
@@ -3202,7 +3214,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B215">
         <v>0.1905</v>
@@ -3257,7 +3269,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B220">
         <v>0.127</v>
@@ -3323,7 +3335,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B226">
         <v>0.33329999999999999</v>
@@ -3345,7 +3357,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B228">
         <v>0.17460000000000001</v>
@@ -3455,7 +3467,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B238">
         <v>0.28570000000000001</v>
@@ -3466,7 +3478,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B239">
         <v>0.20630000000000001</v>
@@ -3521,7 +3533,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B244">
         <v>0.42859999999999998</v>
@@ -3532,7 +3544,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B245">
         <v>0.3175</v>
@@ -3565,7 +3577,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B248">
         <v>0.34920000000000001</v>
@@ -3587,7 +3599,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B250">
         <v>0.127</v>
@@ -3598,7 +3610,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B251">
         <v>7.9399999999999998E-2</v>
@@ -3708,7 +3720,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B261">
         <v>0.28570000000000001</v>
@@ -3752,7 +3764,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B265">
         <v>0.38100000000000001</v>
@@ -3763,7 +3775,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B266">
         <v>0.26979999999999998</v>
@@ -3785,7 +3797,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B268">
         <v>0.46029999999999999</v>
@@ -3796,7 +3808,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B269">
         <v>0.1905</v>
@@ -3807,7 +3819,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>0</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="B270">
         <v>0.1905</v>
@@ -3818,7 +3830,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>2.0000000000000001E-4</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="B271">
         <v>0.39679999999999999</v>
@@ -3829,7 +3841,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>4.0300000000000002E-2</v>
+        <v>9.0700000000000003E-2</v>
       </c>
       <c r="B272">
         <v>0.254</v>
@@ -3840,7 +3852,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>9.0999999999999998E-2</v>
+        <v>0.12</v>
       </c>
       <c r="B273">
         <v>0.26979999999999998</v>
@@ -3851,7 +3863,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>7.9000000000000001E-2</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="B274">
         <v>0.44440000000000002</v>
@@ -3862,7 +3874,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>0.13059999999999999</v>
+        <v>0.18060000000000001</v>
       </c>
       <c r="B275">
         <v>0.44440000000000002</v>
@@ -3873,7 +3885,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>0.18870000000000001</v>
+        <v>0.18090000000000001</v>
       </c>
       <c r="B276">
         <v>0.30159999999999998</v>
@@ -3884,7 +3896,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>9.9299999999999999E-2</v>
+        <v>0.1691</v>
       </c>
       <c r="B277">
         <v>0.38100000000000001</v>
@@ -3895,7 +3907,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>0.14929999999999999</v>
+        <v>0.16070000000000001</v>
       </c>
       <c r="B278">
         <v>0.36509999999999998</v>
@@ -3906,7 +3918,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>0.1295</v>
+        <v>0.16020000000000001</v>
       </c>
       <c r="B279">
         <v>0.42859999999999998</v>
@@ -3917,7 +3929,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>0.1376</v>
+        <v>0.1208</v>
       </c>
       <c r="B280">
         <v>0.36509999999999998</v>
@@ -3928,7 +3940,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>0.1145</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="B281">
         <v>0.33329999999999999</v>
@@ -3939,7 +3951,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>6.4500000000000002E-2</v>
+        <v>7.0300000000000001E-2</v>
       </c>
       <c r="B282">
         <v>0.3175</v>
@@ -3950,7 +3962,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>6.2E-2</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="B283">
         <v>0.26979999999999998</v>
@@ -3961,7 +3973,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>4.2599999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="B284">
         <v>0.34920000000000001</v>
@@ -3972,7 +3984,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>3.6799999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="B285">
         <v>0.30159999999999998</v>
@@ -3983,7 +3995,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>3.6499999999999998E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="B286">
         <v>0.3175</v>
@@ -3994,7 +4006,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>6.7999999999999996E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="B287">
         <v>0.39679999999999999</v>
@@ -4005,7 +4017,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>3.0000000000000001E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="B288">
         <v>0.46029999999999999</v>
@@ -4016,7 +4028,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>2.8E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="B289">
         <v>0.44440000000000002</v>
@@ -4027,7 +4039,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>3.8999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="B290">
         <v>0.34920000000000001</v>
@@ -4038,7 +4050,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>1.1999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="B291">
         <v>0.30159999999999998</v>
@@ -4049,7 +4061,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>1.2999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="B292">
         <v>0.38100000000000001</v>
@@ -4060,7 +4072,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B293">
         <v>0.39679999999999999</v>
@@ -4071,7 +4083,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>8.9999999999999998E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B294">
         <v>0.1905</v>
@@ -4082,7 +4094,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B295">
         <v>6.3500000000000001E-2</v>
@@ -4115,7 +4127,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B298">
         <v>0.30159999999999998</v>
@@ -4148,7 +4160,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B301">
         <v>0.41270000000000001</v>
@@ -4181,7 +4193,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B304">
         <v>0.46029999999999999</v>
@@ -4192,7 +4204,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B305">
         <v>0.44440000000000002</v>
@@ -4236,7 +4248,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B309">
         <v>0.34920000000000001</v>
@@ -4247,7 +4259,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B310">
         <v>0.49209999999999998</v>
@@ -4258,7 +4270,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B311">
         <v>0.15870000000000001</v>
@@ -4291,7 +4303,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B314">
         <v>0.30159999999999998</v>
@@ -4335,7 +4347,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B318">
         <v>0.34920000000000001</v>
@@ -4357,7 +4369,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B320">
         <v>0.49209999999999998</v>
@@ -4489,7 +4501,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B332">
         <v>0.15870000000000001</v>
@@ -4511,7 +4523,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B334">
         <v>6.3500000000000001E-2</v>
@@ -4522,7 +4534,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B335">
         <v>0.1111</v>
@@ -4566,7 +4578,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B339">
         <v>0.1429</v>
@@ -4577,7 +4589,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B340">
         <v>0.33329999999999999</v>
@@ -4588,7 +4600,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B341">
         <v>0.46029999999999999</v>
@@ -4621,7 +4633,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B344">
         <v>6.3500000000000001E-2</v>
@@ -4632,7 +4644,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B345">
         <v>0.26979999999999998</v>
@@ -4654,7 +4666,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B347">
         <v>0.23810000000000001</v>
@@ -4676,7 +4688,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B349">
         <v>0.38100000000000001</v>
@@ -4687,7 +4699,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B350">
         <v>0.42859999999999998</v>
@@ -4698,7 +4710,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -4753,7 +4765,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B356">
         <v>0.1905</v>
@@ -4775,7 +4787,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B358">
         <v>0.127</v>
@@ -4797,7 +4809,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B360">
         <v>0.36509999999999998</v>
@@ -4841,7 +4853,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="B364">
         <v>0.50790000000000002</v>
@@ -4852,7 +4864,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="B365">
         <v>0.46029999999999999</v>
@@ -4863,7 +4875,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>2.0000000000000001E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="B366">
         <v>0.49209999999999998</v>
@@ -4874,7 +4886,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B367">
         <v>0.52380000000000004</v>
@@ -4896,7 +4908,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B369">
         <v>0.254</v>
@@ -4907,7 +4919,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B370">
         <v>0.38100000000000001</v>
@@ -4951,7 +4963,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B374">
         <v>0.58730000000000004</v>
@@ -4973,7 +4985,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B376">
         <v>0.1111</v>
@@ -5006,7 +5018,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>0</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="B379">
         <v>0.42859999999999998</v>
@@ -5017,7 +5029,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="B380">
         <v>0.52380000000000004</v>
@@ -5028,7 +5040,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>1.0200000000000001E-2</v>
+        <v>6.0699999999999997E-2</v>
       </c>
       <c r="B381">
         <v>0.23810000000000001</v>
@@ -5039,7 +5051,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>2.24E-2</v>
+        <v>0.1573</v>
       </c>
       <c r="B382">
         <v>0.30159999999999998</v>
@@ -5050,7 +5062,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>0.1227</v>
+        <v>0.31269999999999998</v>
       </c>
       <c r="B383">
         <v>0.28570000000000001</v>
@@ -5061,7 +5073,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>0.35249999999999998</v>
+        <v>0.5887</v>
       </c>
       <c r="B384">
         <v>0.26979999999999998</v>
@@ -5072,7 +5084,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>0.59830000000000005</v>
+        <v>0.7036</v>
       </c>
       <c r="B385">
         <v>0.26979999999999998</v>
@@ -5083,7 +5095,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>1</v>
+        <v>0.7298</v>
       </c>
       <c r="B386">
         <v>0.254</v>
@@ -5094,7 +5106,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>0.77459999999999996</v>
+        <v>0.63870000000000005</v>
       </c>
       <c r="B387">
         <v>0.26979999999999998</v>
@@ -5105,7 +5117,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>0.70109999999999995</v>
+        <v>0.57410000000000005</v>
       </c>
       <c r="B388">
         <v>0.254</v>
@@ -5116,7 +5128,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>0.70169999999999999</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="B389">
         <v>0.254</v>
@@ -5127,7 +5139,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>0.53269999999999995</v>
+        <v>0.58120000000000005</v>
       </c>
       <c r="B390">
         <v>0.28570000000000001</v>
@@ -5138,7 +5150,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>0.52639999999999998</v>
+        <v>0.70609999999999995</v>
       </c>
       <c r="B391">
         <v>0.30159999999999998</v>
@@ -5149,7 +5161,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>0.93640000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="B392">
         <v>0.254</v>
@@ -5160,7 +5172,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>0.95940000000000003</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="B393">
         <v>0.22220000000000001</v>
@@ -5171,7 +5183,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>0.65400000000000003</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="B394">
         <v>0.26979999999999998</v>
@@ -5182,7 +5194,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>0.72199999999999998</v>
+        <v>0.47010000000000002</v>
       </c>
       <c r="B395">
         <v>0.254</v>
@@ -5193,7 +5205,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>0.52949999999999997</v>
+        <v>0.32979999999999998</v>
       </c>
       <c r="B396">
         <v>0.26979999999999998</v>
@@ -5204,7 +5216,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>0.44369999999999998</v>
+        <v>0.22539999999999999</v>
       </c>
       <c r="B397">
         <v>0.26979999999999998</v>
@@ -5215,7 +5227,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>0.2263</v>
+        <v>0.13020000000000001</v>
       </c>
       <c r="B398">
         <v>0.28570000000000001</v>
@@ -5226,7 +5238,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>0.11899999999999999</v>
+        <v>8.8400000000000006E-2</v>
       </c>
       <c r="B399">
         <v>0.26979999999999998</v>
@@ -5237,7 +5249,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>0.1019</v>
+        <v>5.7799999999999997E-2</v>
       </c>
       <c r="B400">
         <v>0.23810000000000001</v>
@@ -5248,7 +5260,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>8.2299999999999998E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="B401">
         <v>0.23810000000000001</v>
@@ -5259,7 +5271,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>1.6899999999999998E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="B402">
         <v>0.22220000000000001</v>
@@ -5270,7 +5282,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>2.98E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="B403">
         <v>0.254</v>
@@ -5281,7 +5293,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>0.01</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="B404">
         <v>0.34920000000000001</v>
@@ -5292,7 +5304,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>7.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="B405">
         <v>0.28570000000000001</v>
@@ -5303,7 +5315,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>8.8000000000000005E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="B406">
         <v>0.28570000000000001</v>
@@ -5325,7 +5337,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>5.4000000000000003E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="B408">
         <v>0.28570000000000001</v>
@@ -5336,7 +5348,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>4.3E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="B409">
         <v>0.26979999999999998</v>
@@ -5347,7 +5359,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>8.8999999999999999E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="B410">
         <v>0.254</v>
@@ -5358,7 +5370,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>3.3E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B411">
         <v>0.254</v>
@@ -5369,7 +5381,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>2.8999999999999998E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B412">
         <v>0.34920000000000001</v>
@@ -5380,7 +5392,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>1.4E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B413">
         <v>0.28570000000000001</v>
@@ -5391,7 +5403,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>2.3E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B414">
         <v>0.26979999999999998</v>
@@ -5402,7 +5414,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>2.8999999999999998E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B415">
         <v>0.23810000000000001</v>
@@ -5413,7 +5425,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>1.2999999999999999E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="B416">
         <v>0.30159999999999998</v>
@@ -5435,7 +5447,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B418">
         <v>0.33329999999999999</v>
@@ -5446,7 +5458,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>8.9999999999999998E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B419">
         <v>0.28570000000000001</v>
@@ -5457,7 +5469,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B420">
         <v>0.26979999999999998</v>
@@ -5468,7 +5480,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B421">
         <v>0.254</v>
@@ -5512,7 +5524,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B425">
         <v>0.22220000000000001</v>
@@ -5523,7 +5535,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B426">
         <v>0.28570000000000001</v>
@@ -5578,7 +5590,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B431">
         <v>0.34920000000000001</v>
@@ -5600,7 +5612,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B433">
         <v>0.6825</v>
@@ -5611,7 +5623,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B434">
         <v>0.53969999999999996</v>
@@ -5644,7 +5656,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B437">
         <v>6.3500000000000001E-2</v>
@@ -5677,7 +5689,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B440">
         <v>0.34920000000000001</v>
@@ -5688,7 +5700,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B441">
         <v>0.63490000000000002</v>
@@ -5721,7 +5733,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B444">
         <v>0.1429</v>
@@ -5732,7 +5744,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B445">
         <v>0.17460000000000001</v>
@@ -5743,7 +5755,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B446">
         <v>0.1429</v>
@@ -5776,7 +5788,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B449">
         <v>0.53969999999999996</v>
@@ -5831,7 +5843,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B454">
         <v>0.34920000000000001</v>
@@ -5842,7 +5854,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B455">
         <v>0.58730000000000004</v>
@@ -5864,7 +5876,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B457">
         <v>0.28570000000000001</v>
@@ -5908,7 +5920,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B461">
         <v>0.33329999999999999</v>
@@ -5941,7 +5953,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B464">
         <v>0.36509999999999998</v>
@@ -5963,7 +5975,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B466">
         <v>0.22220000000000001</v>
@@ -6007,7 +6019,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B470">
         <v>0.50790000000000002</v>
@@ -6018,7 +6030,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B471">
         <v>0.63490000000000002</v>
@@ -6040,7 +6052,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B473">
         <v>0.1905</v>
@@ -6106,7 +6118,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B479">
         <v>0.71430000000000005</v>
@@ -6128,7 +6140,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B481">
         <v>9.5200000000000007E-2</v>
@@ -6139,7 +6151,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B482">
         <v>0.44440000000000002</v>
@@ -6150,7 +6162,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B483">
         <v>0.254</v>
@@ -6161,7 +6173,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B484">
         <v>0.63490000000000002</v>
@@ -6172,7 +6184,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>1E-4</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="B485">
         <v>0.60319999999999996</v>
@@ -6183,7 +6195,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>1E-4</v>
+        <v>2.46E-2</v>
       </c>
       <c r="B486">
         <v>0.50790000000000002</v>
@@ -6194,7 +6206,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>1.37E-2</v>
+        <v>0.1331</v>
       </c>
       <c r="B487">
         <v>0.36509999999999998</v>
@@ -6205,7 +6217,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>0.1017</v>
+        <v>0.28820000000000001</v>
       </c>
       <c r="B488">
         <v>0.20630000000000001</v>
@@ -6216,7 +6228,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>0.52029999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="B489">
         <v>0.1905</v>
@@ -6227,7 +6239,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>0.63290000000000002</v>
+        <v>0.40050000000000002</v>
       </c>
       <c r="B490">
         <v>0.20630000000000001</v>
@@ -6238,7 +6250,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>0.56179999999999997</v>
+        <v>0.34939999999999999</v>
       </c>
       <c r="B491">
         <v>0.20630000000000001</v>
@@ -6249,7 +6261,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>0.61070000000000002</v>
+        <v>0.41570000000000001</v>
       </c>
       <c r="B492">
         <v>0.1905</v>
@@ -6260,7 +6272,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>0.58660000000000001</v>
+        <v>0.36220000000000002</v>
       </c>
       <c r="B493">
         <v>0.15870000000000001</v>
@@ -6271,7 +6283,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>0.64559999999999995</v>
+        <v>0.40360000000000001</v>
       </c>
       <c r="B494">
         <v>0.1429</v>
@@ -6282,7 +6294,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>0.48139999999999999</v>
+        <v>0.32040000000000002</v>
       </c>
       <c r="B495">
         <v>0.15870000000000001</v>
@@ -6293,7 +6305,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>0.59819999999999995</v>
+        <v>0.3019</v>
       </c>
       <c r="B496">
         <v>0.1429</v>
@@ -6304,7 +6316,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>0.31009999999999999</v>
+        <v>0.22259999999999999</v>
       </c>
       <c r="B497">
         <v>0.1429</v>
@@ -6315,7 +6327,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>0.3468</v>
+        <v>0.2046</v>
       </c>
       <c r="B498">
         <v>0.1429</v>
@@ -6326,7 +6338,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>0.2928</v>
+        <v>0.1933</v>
       </c>
       <c r="B499">
         <v>0.1429</v>
@@ -6337,7 +6349,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>0.27029999999999998</v>
+        <v>0.15429999999999999</v>
       </c>
       <c r="B500">
         <v>0.15870000000000001</v>
@@ -6348,7 +6360,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>0.26140000000000002</v>
+        <v>0.11840000000000001</v>
       </c>
       <c r="B501">
         <v>0.20630000000000001</v>
@@ -6359,7 +6371,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>0.13070000000000001</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="B502">
         <v>0.22220000000000001</v>
@@ -6370,7 +6382,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>0.1055</v>
+        <v>3.56E-2</v>
       </c>
       <c r="B503">
         <v>0.1429</v>
@@ -6381,7 +6393,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>3.8399999999999997E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="B504">
         <v>0.15870000000000001</v>
@@ -6392,7 +6404,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>1.3899999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="B505">
         <v>0.20630000000000001</v>
@@ -6403,7 +6415,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>1.35E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="B506">
         <v>0.1905</v>
@@ -6414,7 +6426,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>7.1000000000000004E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="B507">
         <v>0.20630000000000001</v>
@@ -6425,7 +6437,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>4.8999999999999998E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B508">
         <v>0.15870000000000001</v>
@@ -6436,7 +6448,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>2.3999999999999998E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="B509">
         <v>0.22220000000000001</v>
@@ -6458,7 +6470,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B511">
         <v>0.22220000000000001</v>
@@ -6469,7 +6481,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>1.1999999999999999E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="B512">
         <v>0.23810000000000001</v>
@@ -6480,7 +6492,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B513">
         <v>0.36509999999999998</v>
@@ -6491,7 +6503,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B514">
         <v>0.39679999999999999</v>
@@ -6502,7 +6514,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B515">
         <v>0.44440000000000002</v>
@@ -6513,7 +6525,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B516">
         <v>0.3175</v>
@@ -6524,7 +6536,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B517">
         <v>0.33329999999999999</v>
@@ -6546,7 +6558,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B519">
         <v>0.41270000000000001</v>
@@ -6557,7 +6569,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B520">
         <v>0.36509999999999998</v>
@@ -6601,7 +6613,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="B524">
         <v>0.22220000000000001</v>
@@ -6645,7 +6657,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B528">
         <v>0.47620000000000001</v>
@@ -6656,7 +6668,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B529">
         <v>0.47620000000000001</v>
@@ -6667,7 +6679,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B530">
         <v>0.46029999999999999</v>
@@ -6678,7 +6690,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B531">
         <v>0.57140000000000002</v>
@@ -6700,7 +6712,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B533">
         <v>0.33329999999999999</v>
@@ -6733,7 +6745,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B536">
         <v>0.746</v>
@@ -6766,7 +6778,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B539">
         <v>0.36509999999999998</v>
@@ -6777,7 +6789,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B540">
         <v>0.39679999999999999</v>
@@ -6788,7 +6800,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B541">
         <v>0.47620000000000001</v>
@@ -6799,7 +6811,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B542">
         <v>0.58730000000000004</v>
@@ -6810,7 +6822,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B543">
         <v>0.90480000000000005</v>
@@ -6821,7 +6833,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B544">
         <v>0.52380000000000004</v>
@@ -6876,7 +6888,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="B549">
         <v>0.69840000000000002</v>
@@ -6953,7 +6965,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="B556">
         <v>0.60319999999999996</v>

--- a/TK/thongKe.xlsx
+++ b/TK/thongKe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ky2_2122\XL tín hiệu số\CK\TK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ky1_2122\XL tín hiệu số\CK\TK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B94BF0-5339-4F18-A4F2-78525AC8E6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47248193-F14A-4265-9FD0-88EF90D5AAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="622" xr2:uid="{8A0C4B13-D321-42AC-9D1D-8AEB5029EB76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="622" activeTab="3" xr2:uid="{8A0C4B13-D321-42AC-9D1D-8AEB5029EB76}"/>
   </bookViews>
   <sheets>
     <sheet name="30FTN" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F6D3C5-97A1-4A55-9E07-2325A699C218}">
   <dimension ref="A1:M677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1001,8 +1001,8 @@
         <v>9</v>
       </c>
       <c r="G18">
-        <f xml:space="preserve"> ((F15 + 3 * H15) + (F16 - 3 * H16)) / 2</f>
-        <v>7.1723192010183984E-2</v>
+        <f xml:space="preserve"> ((F15 + H15) + (F16 - 4 * H16)) / 2</f>
+        <v>5.0412729958818459E-2</v>
       </c>
       <c r="L18">
         <f xml:space="preserve"> ((K15 + M15) + (K16 - M16)) / 2</f>
@@ -7967,8 +7967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F811CF6-3847-43D8-916F-CCE6BE5BB2F7}">
   <dimension ref="A1:M580"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8534,8 +8534,8 @@
         <v>9</v>
       </c>
       <c r="G18">
-        <f xml:space="preserve"> ((F15 + 3 * H15) + (F16 - 3 * H16)) / 2</f>
-        <v>1.6645559872139757E-2</v>
+        <f xml:space="preserve"> ((F15 + H15) + (F16 - 4 * H16)) / 2</f>
+        <v>-9.0093969825561261E-3</v>
       </c>
       <c r="L18">
         <f xml:space="preserve"> ((K15 + M15) + (K16 - M16)) / 2</f>
@@ -14715,7 +14715,7 @@
   <dimension ref="A1:M926"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15284,8 +15284,8 @@
         <v>9</v>
       </c>
       <c r="G18">
-        <f xml:space="preserve"> ((F15 + 3 * H15) + (F16 - 3 * H16)) / 2</f>
-        <v>6.1794580307039819E-2</v>
+        <f xml:space="preserve"> ((F15 + H15) + (F16 - 4 * H16)) / 2</f>
+        <v>3.9007014149959836E-2</v>
       </c>
       <c r="L18">
         <f xml:space="preserve"> ((K15 + M15) + (K16 - M16)) / 2</f>
@@ -24242,8 +24242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D9D64-E9AE-4B24-81A1-9A111E125227}">
   <dimension ref="A1:M742"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -24809,8 +24809,8 @@
         <v>9</v>
       </c>
       <c r="G18">
-        <f xml:space="preserve"> ((F15 + 3 * H15) + (F16 - 3 * H16)) / 2</f>
-        <v>1.3222873050385862E-2</v>
+        <f xml:space="preserve"> ((F15 + H15) + (F16 - 4 * H16)) / 2</f>
+        <v>-1.5166351502991293E-2</v>
       </c>
       <c r="L18">
         <f xml:space="preserve"> ((K15 + M15) + (K16 - M16)) / 2</f>

--- a/TK/thongKe.xlsx
+++ b/TK/thongKe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ky1_2122\XL tín hiệu số\CK\TK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18675904-4DED-4FE2-A61A-6D2F85D722C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11436B0-A599-4EB9-9A2F-5B815F39457B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="622" activeTab="4" xr2:uid="{8A0C4B13-D321-42AC-9D1D-8AEB5029EB76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="622" activeTab="3" xr2:uid="{8A0C4B13-D321-42AC-9D1D-8AEB5029EB76}"/>
   </bookViews>
   <sheets>
     <sheet name="30FTN" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="20">
   <si>
     <t>STE</t>
   </si>
@@ -91,6 +91,12 @@
   <si>
     <t>meanV - 3 * stdV</t>
   </si>
+  <si>
+    <t>Biên chuẩn</t>
+  </si>
+  <si>
+    <t>Biên tìm được</t>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,22 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -230,6 +227,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,18 +561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F6D3C5-97A1-4A55-9E07-2325A699C218}">
-  <dimension ref="A1:K677"/>
+  <dimension ref="A1:O677"/>
   <sheetViews>
-    <sheetView topLeftCell="A656" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="8" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -565,15 +582,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -606,7 +623,7 @@
         <v>0.19370000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -630,8 +647,14 @@
       <c r="K3">
         <v>0.60519999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -655,8 +678,10 @@
       <c r="K4">
         <v>-3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.4E-3</v>
       </c>
@@ -680,8 +705,14 @@
       <c r="K5">
         <v>0.41020000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N5" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -705,8 +736,14 @@
       <c r="K6">
         <v>0.12909999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N6" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4.3E-3</v>
       </c>
@@ -730,8 +767,14 @@
       <c r="K7">
         <v>6.7799999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.7000000000000002E-3</v>
       </c>
@@ -755,8 +798,14 @@
       <c r="K8">
         <v>0.1641</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N8" s="5">
+        <v>2.11</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.8E-3</v>
       </c>
@@ -780,8 +829,14 @@
       <c r="K9">
         <v>0.7107</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N9" s="5">
+        <v>3.44</v>
+      </c>
+      <c r="O9" s="5">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.9E-3</v>
       </c>
@@ -805,8 +860,14 @@
       <c r="K10">
         <v>0.31040000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N10" s="5">
+        <v>3.77</v>
+      </c>
+      <c r="O10" s="5">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.0999999999999999E-3</v>
       </c>
@@ -830,8 +891,14 @@
       <c r="K11">
         <v>0.15939999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N11" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="O11" s="5">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -855,8 +922,14 @@
       <c r="K12">
         <v>0.26300000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N12" s="5">
+        <v>5.13</v>
+      </c>
+      <c r="O12" s="5">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.8999999999999998E-3</v>
       </c>
@@ -866,8 +939,14 @@
       <c r="K13">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N13" s="5">
+        <v>5.96</v>
+      </c>
+      <c r="O13" s="5">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -877,8 +956,14 @@
       <c r="K14">
         <v>1.4500000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N14" s="5">
+        <v>6.28</v>
+      </c>
+      <c r="O14" s="5">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -900,7 +985,7 @@
         <v>0.22389999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -8205,8 +8290,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8214,15 +8301,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F811CF6-3847-43D8-916F-CCE6BE5BB2F7}">
-  <dimension ref="A1:K580"/>
+  <dimension ref="A1:O580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="10.58203125" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8230,15 +8321,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8271,7 +8362,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8295,8 +8386,14 @@
       <c r="K3">
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8320,8 +8417,10 @@
       <c r="K4">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1E-4</v>
       </c>
@@ -8345,8 +8444,14 @@
       <c r="K5">
         <v>-1E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N5" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1E-4</v>
       </c>
@@ -8370,8 +8475,14 @@
       <c r="K6">
         <v>-1E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N6" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -8395,8 +8506,14 @@
       <c r="K7">
         <v>1.3436999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -8420,8 +8537,14 @@
       <c r="K8">
         <v>0.24560000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N8" s="5">
+        <v>2.13</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -8445,8 +8568,14 @@
       <c r="K9">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N9" s="5">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -8470,8 +8599,14 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N10" s="5">
+        <v>2.93</v>
+      </c>
+      <c r="O10" s="5">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -8495,8 +8630,14 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N11" s="5">
+        <v>3.79</v>
+      </c>
+      <c r="O11" s="5">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -8520,8 +8661,14 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N12" s="5">
+        <v>4.38</v>
+      </c>
+      <c r="O12" s="5">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -8531,8 +8678,14 @@
       <c r="K13">
         <v>0.71430000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N13" s="5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="O13" s="5">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -8542,8 +8695,14 @@
       <c r="K14">
         <v>-7.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N14" s="5">
+        <v>5.22</v>
+      </c>
+      <c r="O14" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -8565,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -14787,8 +14946,10 @@
       <c r="C580" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14796,18 +14957,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED8094F-A3DC-4D92-B2B8-D58A6D91D277}">
-  <dimension ref="A1:K926"/>
+  <dimension ref="A1:O926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08203125" customWidth="1"/>
+    <col min="15" max="15" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14815,15 +14978,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -14856,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1E-4</v>
       </c>
@@ -14880,8 +15043,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1E-4</v>
       </c>
@@ -14905,8 +15074,10 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1E-4</v>
       </c>
@@ -14930,8 +15101,14 @@
       <c r="K5">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N5" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1E-4</v>
       </c>
@@ -14955,8 +15132,14 @@
       <c r="K6">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N6" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1E-4</v>
       </c>
@@ -14980,8 +15163,14 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" s="5">
+        <v>2.59</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1E-4</v>
       </c>
@@ -15005,8 +15194,14 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N8" s="5">
+        <v>3</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1E-4</v>
       </c>
@@ -15030,8 +15225,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N9" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="O9" s="5">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1E-4</v>
       </c>
@@ -15055,8 +15256,14 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N10" s="5">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="O10" s="5">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1E-4</v>
       </c>
@@ -15080,8 +15287,14 @@
       <c r="K11">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N11" s="5">
+        <v>6.26</v>
+      </c>
+      <c r="O11" s="5">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1E-4</v>
       </c>
@@ -15105,8 +15318,14 @@
       <c r="K12">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N12" s="5">
+        <v>6.66</v>
+      </c>
+      <c r="O12" s="5">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -15116,8 +15335,14 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N13" s="5">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="O13" s="5">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -15127,8 +15352,14 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N14" s="5">
+        <v>8.39</v>
+      </c>
+      <c r="O14" s="5">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -15150,7 +15381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -25194,8 +25425,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25203,15 +25436,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D9D64-E9AE-4B24-81A1-9A111E125227}">
-  <dimension ref="A1:K742"/>
+  <dimension ref="A1:O742"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="10.25" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -25219,15 +25456,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -25260,7 +25497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -25284,8 +25521,14 @@
       <c r="K3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -25309,8 +25552,10 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -25334,8 +25579,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N5" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -25359,8 +25610,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N6" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -25384,8 +25641,14 @@
       <c r="K7">
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" s="5">
+        <v>2.35</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -25409,8 +25672,14 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N8" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -25434,8 +25703,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N9" s="5">
+        <v>3.76</v>
+      </c>
+      <c r="O9" s="5">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -25459,8 +25734,14 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N10" s="5">
+        <v>4.13</v>
+      </c>
+      <c r="O10" s="5">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -25484,8 +25765,14 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N11" s="5">
+        <v>5.04</v>
+      </c>
+      <c r="O11" s="5">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -25509,8 +25796,14 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N12" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="O12" s="5">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -25520,8 +25813,14 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N13" s="5">
+        <v>6.41</v>
+      </c>
+      <c r="O13" s="5">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -25531,8 +25830,14 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N14" s="5">
+        <v>6.79</v>
+      </c>
+      <c r="O14" s="5">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -25554,7 +25859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -33574,8 +33879,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33585,7 +33892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF54D3E9-8CE5-47DE-8AA1-4DC5418C969A}">
   <dimension ref="B1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -33599,154 +33906,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G1" s="11"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>0.17618700000000001</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>4.8226619999999998E-2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>2.5700000000000001E-4</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="7">
         <v>3.1391174292583499E-6</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="8">
         <f xml:space="preserve"> E4 + 3 * F4</f>
         <v>2.6641735228777504E-4</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="7">
         <f xml:space="preserve"> C4 - 3 * D4</f>
         <v>3.1507140000000017E-2</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="7">
         <f xml:space="preserve"> (G4 + H4) / 2</f>
         <v>1.5886778676143895E-2</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>0.18626542099999999</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>4.8959186000000002E-2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>2.97106E-4</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>2.4022708699026701E-5</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="9">
         <f xml:space="preserve"> E5 + 3 * F5</f>
         <v>3.691741260970801E-4</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="7">
         <f xml:space="preserve"> C5 - 3 * D5</f>
         <v>3.9387862999999967E-2</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="7">
         <f xml:space="preserve"> AVERAGE(G5, H5)</f>
         <v>1.9878518563048522E-2</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>0.11075400000000001</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>1.8698884999999998E-2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>5.9276476071192599E-5</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="9">
         <f xml:space="preserve"> E5 + 3 * F6</f>
         <v>4.7493542821357778E-4</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="7">
         <f xml:space="preserve"> C6 - 3 *D6</f>
         <v>5.465734500000001E-2</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="7">
         <f xml:space="preserve"> AVERAGE(G6, H6)</f>
         <v>2.7566140214106794E-2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>0.20350399999999999</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>3.5906710000000001E-2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>2.4800000000000001E-4</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="7">
         <v>2.2389790130106202E-6</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="8">
         <f xml:space="preserve"> E7 + 3 * F7</f>
         <v>2.5471693703903186E-4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="7">
         <f xml:space="preserve"> C7 - 3 * D7</f>
         <v>9.5783869999999993E-2</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="7">
         <f xml:space="preserve"> AVERAGE(G7, H7)</f>
         <v>4.8019293468519512E-2</v>
       </c>
